--- a/src/test/resources/org/nexial/core/excel/MergingNewExecutionSummarySheet.xlsx
+++ b/src/test/resources/org/nexial/core/excel/MergingNewExecutionSummarySheet.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10329"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/org/nexial/core/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6B4BA2-7F76-FD4F-A542-6B3ADD990D99}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{AD6B4BA2-7F76-FD4F-A542-6B3ADD990D99}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32"/>
   <bookViews>
-    <workbookView xWindow="9140" yWindow="-20560" windowWidth="33600" windowHeight="20560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="20560" windowWidth="33600" xWindow="9140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-20560" firstSheet="1"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="base_showcase" sheetId="5" r:id="rId2"/>
-    <sheet name="#data" sheetId="12" r:id="rId3"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="base_showcase" r:id="rId2" sheetId="5"/>
+    <sheet name="#data" r:id="rId3" sheetId="12"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -23,7 +23,7 @@
     <definedName name="csv">'#system'!$D$2:$D$4</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$90</definedName>
+    <definedName name="desktop">'#system'!$E$2:$E$91</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
@@ -69,7 +69,7 @@
     <author>SentryBot</author>
   </authors>
   <commentList>
-    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment authorId="0" ref="E11" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment authorId="0" ref="F12" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -99,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment authorId="0" ref="F13" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -114,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment authorId="0" ref="E14" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -129,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment authorId="0" ref="E17" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -144,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment authorId="0" ref="E19" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -159,7 +159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment authorId="0" ref="E20" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -174,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment authorId="0" ref="E21" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -189,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+    <comment authorId="0" ref="E22" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -204,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
+    <comment authorId="0" ref="E24" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -219,7 +219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
+    <comment authorId="0" ref="E26" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -234,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E29" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
+    <comment authorId="0" ref="E29" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -249,7 +249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
+    <comment authorId="0" ref="E30" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -264,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
+    <comment authorId="0" ref="E32" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -279,7 +279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
+    <comment authorId="0" ref="E36" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -294,7 +294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F36" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
+    <comment authorId="0" ref="F36" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
       <text>
         <r>
           <rPr>
@@ -309,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
+    <comment authorId="0" ref="E37" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
       <text>
         <r>
           <rPr>
@@ -324,7 +324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
+    <comment authorId="0" ref="F37" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
       <text>
         <r>
           <rPr>
@@ -339,7 +339,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E38" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
+    <comment authorId="0" ref="E38" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
       <text>
         <r>
           <rPr>
@@ -354,7 +354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
+    <comment authorId="0" ref="E39" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
       <text>
         <r>
           <rPr>
@@ -369,7 +369,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F39" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
+    <comment authorId="0" ref="F39" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
       <text>
         <r>
           <rPr>
@@ -384,7 +384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000016000000}">
+    <comment authorId="0" ref="E40" shapeId="0" xr:uid="{00000000-0006-0000-0100-000016000000}">
       <text>
         <r>
           <rPr>
@@ -399,7 +399,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
+    <comment authorId="0" ref="F40" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
       <text>
         <r>
           <rPr>
@@ -414,7 +414,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G40" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000018000000}">
+    <comment authorId="0" ref="G40" shapeId="0" xr:uid="{00000000-0006-0000-0100-000018000000}">
       <text>
         <r>
           <rPr>
@@ -429,7 +429,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E41" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000019000000}">
+    <comment authorId="0" ref="E41" shapeId="0" xr:uid="{00000000-0006-0000-0100-000019000000}">
       <text>
         <r>
           <rPr>
@@ -444,7 +444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E42" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001A000000}">
+    <comment authorId="0" ref="E42" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -459,7 +459,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001B000000}">
+    <comment authorId="0" ref="E43" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -474,7 +474,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E44" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001C000000}">
+    <comment authorId="0" ref="E44" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -489,7 +489,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E45" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001D000000}">
+    <comment authorId="0" ref="E45" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -504,7 +504,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E55" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001E000000}">
+    <comment authorId="0" ref="E55" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -519,7 +519,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E64" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001F000000}">
+    <comment authorId="0" ref="E64" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -534,7 +534,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E65" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000020000000}">
+    <comment authorId="0" ref="E65" shapeId="0" xr:uid="{00000000-0006-0000-0100-000020000000}">
       <text>
         <r>
           <rPr>
@@ -549,7 +549,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F65" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000021000000}">
+    <comment authorId="0" ref="F65" shapeId="0" xr:uid="{00000000-0006-0000-0100-000021000000}">
       <text>
         <r>
           <rPr>
@@ -564,7 +564,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E66" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000022000000}">
+    <comment authorId="0" ref="E66" shapeId="0" xr:uid="{00000000-0006-0000-0100-000022000000}">
       <text>
         <r>
           <rPr>
@@ -579,7 +579,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E67" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000023000000}">
+    <comment authorId="0" ref="E67" shapeId="0" xr:uid="{00000000-0006-0000-0100-000023000000}">
       <text>
         <r>
           <rPr>
@@ -594,7 +594,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E68" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000024000000}">
+    <comment authorId="0" ref="E68" shapeId="0" xr:uid="{00000000-0006-0000-0100-000024000000}">
       <text>
         <r>
           <rPr>
@@ -609,7 +609,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E69" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000025000000}">
+    <comment authorId="0" ref="E69" shapeId="0" xr:uid="{00000000-0006-0000-0100-000025000000}">
       <text>
         <r>
           <rPr>
@@ -624,7 +624,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E70" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000026000000}">
+    <comment authorId="0" ref="E70" shapeId="0" xr:uid="{00000000-0006-0000-0100-000026000000}">
       <text>
         <r>
           <rPr>
@@ -639,7 +639,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E71" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000027000000}">
+    <comment authorId="0" ref="E71" shapeId="0" xr:uid="{00000000-0006-0000-0100-000027000000}">
       <text>
         <r>
           <rPr>
@@ -654,7 +654,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E72" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000028000000}">
+    <comment authorId="0" ref="E72" shapeId="0" xr:uid="{00000000-0006-0000-0100-000028000000}">
       <text>
         <r>
           <rPr>
@@ -669,7 +669,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E73" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000029000000}">
+    <comment authorId="0" ref="E73" shapeId="0" xr:uid="{00000000-0006-0000-0100-000029000000}">
       <text>
         <r>
           <rPr>
@@ -684,7 +684,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E74" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002A000000}">
+    <comment authorId="0" ref="E74" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002A000000}">
       <text>
         <r>
           <rPr>
@@ -699,7 +699,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E75" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002B000000}">
+    <comment authorId="0" ref="E75" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002B000000}">
       <text>
         <r>
           <rPr>
@@ -714,7 +714,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F76" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002C000000}">
+    <comment authorId="0" ref="F76" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002C000000}">
       <text>
         <r>
           <rPr>
@@ -729,7 +729,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F77" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002D000000}">
+    <comment authorId="0" ref="F77" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002D000000}">
       <text>
         <r>
           <rPr>
@@ -744,7 +744,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F82" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002E000000}">
+    <comment authorId="0" ref="F82" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002E000000}">
       <text>
         <r>
           <rPr>
@@ -759,7 +759,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F84" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002F000000}">
+    <comment authorId="0" ref="F84" shapeId="0" xr:uid="{00000000-0006-0000-0100-00002F000000}">
       <text>
         <r>
           <rPr>
@@ -774,7 +774,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F87" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000030000000}">
+    <comment authorId="0" ref="F87" shapeId="0" xr:uid="{00000000-0006-0000-0100-000030000000}">
       <text>
         <r>
           <rPr>
@@ -789,7 +789,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F88" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000031000000}">
+    <comment authorId="0" ref="F88" shapeId="0" xr:uid="{00000000-0006-0000-0100-000031000000}">
       <text>
         <r>
           <rPr>
@@ -804,7 +804,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F90" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000032000000}">
+    <comment authorId="0" ref="F90" shapeId="0" xr:uid="{00000000-0006-0000-0100-000032000000}">
       <text>
         <r>
           <rPr>
@@ -819,7 +819,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E91" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000033000000}">
+    <comment authorId="0" ref="E91" shapeId="0" xr:uid="{00000000-0006-0000-0100-000033000000}">
       <text>
         <r>
           <rPr>
@@ -834,7 +834,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F91" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000034000000}">
+    <comment authorId="0" ref="F91" shapeId="0" xr:uid="{00000000-0006-0000-0100-000034000000}">
       <text>
         <r>
           <rPr>
@@ -849,7 +849,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E93" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000035000000}">
+    <comment authorId="0" ref="E93" shapeId="0" xr:uid="{00000000-0006-0000-0100-000035000000}">
       <text>
         <r>
           <rPr>
@@ -864,7 +864,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E94" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000036000000}">
+    <comment authorId="0" ref="E94" shapeId="0" xr:uid="{00000000-0006-0000-0100-000036000000}">
       <text>
         <r>
           <rPr>
@@ -879,7 +879,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E96" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000037000000}">
+    <comment authorId="0" ref="E96" shapeId="0" xr:uid="{00000000-0006-0000-0100-000037000000}">
       <text>
         <r>
           <rPr>
@@ -894,7 +894,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F96" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000038000000}">
+    <comment authorId="0" ref="F96" shapeId="0" xr:uid="{00000000-0006-0000-0100-000038000000}">
       <text>
         <r>
           <rPr>
@@ -914,7 +914,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="597">
   <si>
     <t>description</t>
   </si>
@@ -2708,12 +2708,19 @@
   <si>
     <t>oauth(var,url,auth)</t>
   </si>
+  <si>
+    <t>saveRowCount(var)</t>
+  </si>
+  <si>
+    <t>assertBetween(num,min,max)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2862,8 +2869,84 @@
       <color rgb="FF0000FF"/>
       <name val="Consolas"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2942,8 +3025,127 @@
         <bgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -3159,230 +3361,460 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="24">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="66">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="9" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="9" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="5" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="6" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="7" fontId="13" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="13" fillId="8" fontId="15" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="14" fillId="10" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="15" fillId="11" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="16" fillId="12" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="13" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" indent="1"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="9" fontId="17" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="6" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="7" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="10" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="11" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="24" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="28" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="32" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="36" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="36" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="4"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="5"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="6"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="7"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="8"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="9"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="10"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="11"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="12"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="13"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="14"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="15"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="16"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="17"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="18"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="19"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="20"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="21"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="22"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="23"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -3416,7 +3848,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -3441,10 +3873,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3479,7 +3911,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -3514,7 +3946,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -3608,21 +4040,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3639,7 +4071,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -3691,30 +4123,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W108"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X108"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="13" width="8.5" customWidth="1" collapsed="1"/>
-    <col min="14" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="8.6640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="4" max="13" customWidth="true" width="8.5" collapsed="true"/>
+    <col min="14" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3785,7 +4217,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>440</v>
       </c>
@@ -3823,7 +4255,7 @@
         <v>201</v>
       </c>
       <c r="M2" t="s">
-        <v>560</v>
+        <v>596</v>
       </c>
       <c r="N2" t="s">
         <v>382</v>
@@ -3856,7 +4288,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -3924,7 +4356,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>178</v>
       </c>
@@ -3989,7 +4421,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -4045,7 +4477,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>179</v>
       </c>
@@ -4098,7 +4530,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>147</v>
       </c>
@@ -4145,7 +4577,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>441</v>
       </c>
@@ -4192,7 +4624,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>148</v>
       </c>
@@ -4233,7 +4665,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>442</v>
       </c>
@@ -4268,7 +4700,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>189</v>
       </c>
@@ -4300,7 +4732,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>200</v>
       </c>
@@ -4326,7 +4758,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -4352,7 +4784,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>368</v>
       </c>
@@ -4378,7 +4810,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>188</v>
       </c>
@@ -4401,7 +4833,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>443</v>
       </c>
@@ -4424,7 +4856,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>444</v>
       </c>
@@ -4441,7 +4873,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>445</v>
       </c>
@@ -4458,7 +4890,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -4475,7 +4907,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -4492,7 +4924,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -4509,7 +4941,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>135</v>
       </c>
@@ -4523,7 +4955,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>356</v>
       </c>
@@ -4537,7 +4969,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="C24" t="s">
         <v>163</v>
       </c>
@@ -4548,7 +4980,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="C25" t="s">
         <v>43</v>
       </c>
@@ -4559,7 +4991,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="C26" t="s">
         <v>44</v>
       </c>
@@ -4570,7 +5002,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="C27" t="s">
         <v>164</v>
       </c>
@@ -4581,7 +5013,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="C28" t="s">
         <v>165</v>
       </c>
@@ -4592,7 +5024,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="C29" t="s">
         <v>166</v>
       </c>
@@ -4603,7 +5035,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="C30" t="s">
         <v>45</v>
       </c>
@@ -4614,7 +5046,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="C31" t="s">
         <v>159</v>
       </c>
@@ -4625,7 +5057,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="E32" t="s">
         <v>488</v>
       </c>
@@ -4633,7 +5065,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="E33" t="s">
         <v>489</v>
       </c>
@@ -4641,7 +5073,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="E34" t="s">
         <v>490</v>
       </c>
@@ -4649,7 +5081,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="35" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="E35" t="s">
         <v>491</v>
       </c>
@@ -4657,7 +5089,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="E36" t="s">
         <v>492</v>
       </c>
@@ -4665,7 +5097,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="37" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="E37" t="s">
         <v>493</v>
       </c>
@@ -4673,7 +5105,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="38" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="E38" t="s">
         <v>494</v>
       </c>
@@ -4681,7 +5113,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="E39" t="s">
         <v>162</v>
       </c>
@@ -4689,7 +5121,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="E40" t="s">
         <v>314</v>
       </c>
@@ -4697,7 +5129,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="E41" t="s">
         <v>495</v>
       </c>
@@ -4705,7 +5137,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="42">
       <c r="E42" t="s">
         <v>496</v>
       </c>
@@ -4713,7 +5145,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="E43" t="s">
         <v>497</v>
       </c>
@@ -4721,7 +5153,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="44" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="E44" t="s">
         <v>498</v>
       </c>
@@ -4729,7 +5161,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="45" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="E45" t="s">
         <v>499</v>
       </c>
@@ -4737,7 +5169,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="E46" t="s">
         <v>216</v>
       </c>
@@ -4745,7 +5177,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="E47" t="s">
         <v>500</v>
       </c>
@@ -4753,7 +5185,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="E48" t="s">
         <v>501</v>
       </c>
@@ -4761,7 +5193,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="E49" t="s">
         <v>502</v>
       </c>
@@ -4769,7 +5201,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="50" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="E50" t="s">
         <v>503</v>
       </c>
@@ -4777,7 +5209,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="51" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="E51" t="s">
         <v>504</v>
       </c>
@@ -4785,7 +5217,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="E52" t="s">
         <v>505</v>
       </c>
@@ -4793,7 +5225,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="E53" t="s">
         <v>506</v>
       </c>
@@ -4801,7 +5233,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="E54" t="s">
         <v>507</v>
       </c>
@@ -4809,7 +5241,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="55" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="E55" t="s">
         <v>508</v>
       </c>
@@ -4817,7 +5249,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="E56" t="s">
         <v>509</v>
       </c>
@@ -4825,7 +5257,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="E57" t="s">
         <v>510</v>
       </c>
@@ -4833,7 +5265,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="E58" t="s">
         <v>511</v>
       </c>
@@ -4841,7 +5273,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="59" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="E59" t="s">
         <v>512</v>
       </c>
@@ -4849,7 +5281,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="60" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="E60" t="s">
         <v>513</v>
       </c>
@@ -4857,7 +5289,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="61" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="E61" t="s">
         <v>514</v>
       </c>
@@ -4865,7 +5297,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="62" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="E62" t="s">
         <v>515</v>
       </c>
@@ -4873,7 +5305,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="E63" t="s">
         <v>516</v>
       </c>
@@ -4881,7 +5313,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="E64" t="s">
         <v>517</v>
       </c>
@@ -4889,7 +5321,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="65" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="E65" t="s">
         <v>518</v>
       </c>
@@ -4897,7 +5329,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="66" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="E66" t="s">
         <v>519</v>
       </c>
@@ -4905,7 +5337,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="E67" t="s">
         <v>520</v>
       </c>
@@ -4913,7 +5345,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="68" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="E68" t="s">
         <v>521</v>
       </c>
@@ -4921,304 +5353,307 @@
         <v>96</v>
       </c>
     </row>
-    <row r="69" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="E69" t="s">
-        <v>522</v>
+        <v>595</v>
       </c>
       <c r="S69" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="70" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="E70" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="S70" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="E71" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="S71" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="72" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="E72" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="S72" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="73" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="E73" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="S73" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="74" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="E74" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="S74" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="75" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="E75" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="S75" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="76" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="E76" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="S76" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="E77" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="S77" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="78" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="E78" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="S78" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="E79" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="S79" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="80" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="E80" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="S80" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="81" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="E81" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="S81" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="82" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="E82" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="S82" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="83" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="E83" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="S83" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="84" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="E84" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="S84" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="85" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="E85" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="S85" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="86" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="E86" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="S86" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="87" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="E87" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="S87" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="88" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="E88" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="S88" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="89" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="E89" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="S89" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="90" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="E90" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="S90" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="91">
+      <c r="E91" t="s">
+        <v>543</v>
+      </c>
       <c r="S91" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="92" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="92">
       <c r="S92" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="93" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="93">
       <c r="S93" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="94" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="94">
       <c r="S94" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="95" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="95">
       <c r="S95" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="96" spans="5:19" x14ac:dyDescent="0.2">
+    <row r="96">
       <c r="S96" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="97" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="97">
       <c r="S97" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="98" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="98">
       <c r="S98" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="99" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="99">
       <c r="S99" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="100" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="100">
       <c r="S100" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="101" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="101">
       <c r="S101" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="102" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="102">
       <c r="S102" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="103" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="103">
       <c r="S103" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="104" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="104">
       <c r="S104" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="105">
       <c r="S105" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="106" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="106">
       <c r="S106" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="107" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="107">
       <c r="S107" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="108" spans="19:19" x14ac:dyDescent="0.2">
+    <row r="108">
       <c r="S108" t="s">
         <v>122</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O1005"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:D1"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection pane="bottomLeft" sqref="A5" activeCell="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="48.6640625" style="7" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.33203125" style="12" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="41.33203125" style="8" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="33.83203125" style="8" customWidth="1" collapsed="1"/>
-    <col min="6" max="9" width="23.6640625" style="8" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="39.33203125" style="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="9" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="14" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="15" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.83203125" style="14" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="9" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="3" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="7" width="23.1640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="7" width="48.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="12" width="9.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="8" width="41.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="8" width="33.83203125" collapsed="true"/>
+    <col min="6" max="9" customWidth="true" style="8" width="23.6640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="24" width="39.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="9" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="14" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="15" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="14" width="15.83203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="9" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="3" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
@@ -5249,7 +5684,7 @@
       <c r="N1" s="46"/>
       <c r="O1" s="47"/>
     </row>
-    <row r="2" spans="1:15" ht="140" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="140" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
         <v>30</v>
       </c>
@@ -5272,7 +5707,7 @@
       <c r="N2" s="52"/>
       <c r="O2" s="53"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="10"/>
@@ -5289,7 +5724,7 @@
       <c r="N3" s="13"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" s="5" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="20" r="4" s="5" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>323</v>
       </c>
@@ -5334,7 +5769,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="14.75" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="30" t="s">
         <v>217</v>
       </c>
@@ -5365,7 +5800,7 @@
       </c>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="14.75" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="31" t="s">
         <v>218</v>
@@ -5394,7 +5829,7 @@
       </c>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="31" t="s">
         <v>220</v>
@@ -5425,7 +5860,7 @@
       </c>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="14.75" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="11" t="s">
@@ -5452,7 +5887,7 @@
       </c>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="11" t="s">
@@ -5481,7 +5916,7 @@
       </c>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="14.75" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="11" t="s">
@@ -5508,7 +5943,7 @@
       </c>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="31" t="s">
         <v>224</v>
@@ -5539,7 +5974,7 @@
       </c>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="11" t="s">
@@ -5568,7 +6003,7 @@
       </c>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="31" t="s">
         <v>225</v>
@@ -5599,7 +6034,7 @@
       </c>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="11" t="s">
@@ -5628,7 +6063,7 @@
       </c>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="31" t="s">
         <v>227</v>
@@ -5659,7 +6094,7 @@
       </c>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="11" t="s">
@@ -5688,7 +6123,7 @@
       </c>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="11" t="s">
@@ -5717,7 +6152,7 @@
       </c>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="14.75" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="11" t="s">
@@ -5744,7 +6179,7 @@
       </c>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="31" t="s">
         <v>231</v>
@@ -5775,7 +6210,7 @@
       </c>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="11" t="s">
@@ -5806,7 +6241,7 @@
       </c>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="11" t="s">
@@ -5835,7 +6270,7 @@
       </c>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="11" t="s">
@@ -5864,7 +6299,7 @@
       </c>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="11" t="s">
@@ -5893,7 +6328,7 @@
       </c>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="31" t="s">
         <v>237</v>
@@ -5926,7 +6361,7 @@
       </c>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="14.75" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="E25" s="37" t="s">
         <v>435</v>
       </c>
@@ -5967,7 +6402,7 @@
       </c>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="14.75" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="31" t="s">
         <v>240</v>
@@ -5996,7 +6431,7 @@
       </c>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="14.75" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="31" t="s">
         <v>241</v>
@@ -6612,7 +7047,7 @@
       </c>
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="1:15" ht="28" x14ac:dyDescent="0.2">
+    <row ht="28" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="30" t="s">
         <v>272</v>
       </c>
@@ -6746,7 +7181,7 @@
       </c>
       <c r="O51" s="2"/>
     </row>
-    <row r="52" spans="1:15" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="14.75" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="11" t="s">
@@ -6806,7 +7241,7 @@
       </c>
       <c r="O53" s="2"/>
     </row>
-    <row r="54" spans="1:15" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="14.75" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="30" t="s">
         <v>284</v>
       </c>
@@ -6868,7 +7303,7 @@
       </c>
       <c r="O55" s="2"/>
     </row>
-    <row r="56" spans="1:15" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="14.75" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="31" t="s">
         <v>288</v>
@@ -6897,7 +7332,7 @@
       </c>
       <c r="O56" s="2"/>
     </row>
-    <row r="57" spans="1:15" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="14.75" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="31" t="s">
         <v>289</v>
@@ -6926,7 +7361,7 @@
       </c>
       <c r="O57" s="2"/>
     </row>
-    <row r="58" spans="1:15" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="14.75" r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" s="31" t="s">
         <v>290</v>
@@ -6955,7 +7390,7 @@
       </c>
       <c r="O58" s="2"/>
     </row>
-    <row r="59" spans="1:15" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="14.75" r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="11" t="s">
@@ -6982,7 +7417,7 @@
       </c>
       <c r="O59" s="2"/>
     </row>
-    <row r="60" spans="1:15" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="14.75" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="11" t="s">
@@ -7009,7 +7444,7 @@
       </c>
       <c r="O60" s="2"/>
     </row>
-    <row r="61" spans="1:15" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="14.75" r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="11" t="s">
@@ -7036,7 +7471,7 @@
       </c>
       <c r="O61" s="2"/>
     </row>
-    <row r="62" spans="1:15" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="14.75" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="11" t="s">
@@ -7502,7 +7937,7 @@
       </c>
       <c r="O77" s="2"/>
     </row>
-    <row r="78" spans="1:15" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="14.75" r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="11" t="s">
@@ -7529,7 +7964,7 @@
       </c>
       <c r="O78" s="2"/>
     </row>
-    <row r="79" spans="1:15" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="14.75" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="11" t="s">
@@ -7585,7 +8020,7 @@
       </c>
       <c r="O80" s="2"/>
     </row>
-    <row r="81" spans="1:15" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="14.75" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="11" t="s">
@@ -7643,7 +8078,7 @@
       </c>
       <c r="O82" s="2"/>
     </row>
-    <row r="83" spans="1:15" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="14.75" r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="11" t="s">
@@ -7699,7 +8134,7 @@
       </c>
       <c r="O84" s="2"/>
     </row>
-    <row r="85" spans="1:15" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="14.75" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="11" t="s">
@@ -8048,7 +8483,7 @@
       </c>
       <c r="O95" s="2"/>
     </row>
-    <row r="96" spans="1:15" ht="28" x14ac:dyDescent="0.2">
+    <row ht="28" r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="4"/>
       <c r="B96" s="31" t="s">
         <v>354</v>
@@ -8096,7 +8531,7 @@
       <c r="N97" s="13"/>
       <c r="O97" s="2"/>
     </row>
-    <row r="98" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="11"/>
@@ -8113,7 +8548,7 @@
       <c r="N98" s="13"/>
       <c r="O98" s="2"/>
     </row>
-    <row r="99" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="11"/>
@@ -8130,7 +8565,7 @@
       <c r="N99" s="13"/>
       <c r="O99" s="2"/>
     </row>
-    <row r="100" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="11"/>
@@ -8147,7 +8582,7 @@
       <c r="N100" s="13"/>
       <c r="O100" s="2"/>
     </row>
-    <row r="101" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="11"/>
@@ -8164,7 +8599,7 @@
       <c r="N101" s="13"/>
       <c r="O101" s="2"/>
     </row>
-    <row r="102" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="11"/>
@@ -8181,7 +8616,7 @@
       <c r="N102" s="13"/>
       <c r="O102" s="2"/>
     </row>
-    <row r="103" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="11"/>
@@ -8198,7 +8633,7 @@
       <c r="N103" s="13"/>
       <c r="O103" s="2"/>
     </row>
-    <row r="104" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="11"/>
@@ -8215,7 +8650,7 @@
       <c r="N104" s="13"/>
       <c r="O104" s="2"/>
     </row>
-    <row r="105" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="11"/>
@@ -8232,7 +8667,7 @@
       <c r="N105" s="13"/>
       <c r="O105" s="2"/>
     </row>
-    <row r="106" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="11"/>
@@ -8249,7 +8684,7 @@
       <c r="N106" s="13"/>
       <c r="O106" s="2"/>
     </row>
-    <row r="107" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="11"/>
@@ -8266,7 +8701,7 @@
       <c r="N107" s="13"/>
       <c r="O107" s="2"/>
     </row>
-    <row r="108" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="11"/>
@@ -8283,7 +8718,7 @@
       <c r="N108" s="13"/>
       <c r="O108" s="2"/>
     </row>
-    <row r="109" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="11"/>
@@ -8300,7 +8735,7 @@
       <c r="N109" s="13"/>
       <c r="O109" s="2"/>
     </row>
-    <row r="110" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="11"/>
@@ -8317,7 +8752,7 @@
       <c r="N110" s="13"/>
       <c r="O110" s="2"/>
     </row>
-    <row r="111" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="11"/>
@@ -8334,7 +8769,7 @@
       <c r="N111" s="13"/>
       <c r="O111" s="2"/>
     </row>
-    <row r="112" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="11"/>
@@ -8351,7 +8786,7 @@
       <c r="N112" s="13"/>
       <c r="O112" s="2"/>
     </row>
-    <row r="113" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="11"/>
@@ -8368,7 +8803,7 @@
       <c r="N113" s="13"/>
       <c r="O113" s="2"/>
     </row>
-    <row r="114" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="11"/>
@@ -8385,7 +8820,7 @@
       <c r="N114" s="13"/>
       <c r="O114" s="2"/>
     </row>
-    <row r="115" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="11"/>
@@ -8402,7 +8837,7 @@
       <c r="N115" s="13"/>
       <c r="O115" s="2"/>
     </row>
-    <row r="116" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="11"/>
@@ -8419,7 +8854,7 @@
       <c r="N116" s="13"/>
       <c r="O116" s="2"/>
     </row>
-    <row r="117" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="11"/>
@@ -8436,7 +8871,7 @@
       <c r="N117" s="13"/>
       <c r="O117" s="2"/>
     </row>
-    <row r="118" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="11"/>
@@ -8453,7 +8888,7 @@
       <c r="N118" s="13"/>
       <c r="O118" s="2"/>
     </row>
-    <row r="119" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="11"/>
@@ -8470,7 +8905,7 @@
       <c r="N119" s="13"/>
       <c r="O119" s="2"/>
     </row>
-    <row r="120" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="4"/>
       <c r="B120" s="4"/>
       <c r="C120" s="11"/>
@@ -8487,7 +8922,7 @@
       <c r="N120" s="13"/>
       <c r="O120" s="2"/>
     </row>
-    <row r="121" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="4"/>
       <c r="B121" s="4"/>
       <c r="C121" s="11"/>
@@ -8504,7 +8939,7 @@
       <c r="N121" s="13"/>
       <c r="O121" s="2"/>
     </row>
-    <row r="122" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="4"/>
       <c r="B122" s="4"/>
       <c r="C122" s="11"/>
@@ -8521,7 +8956,7 @@
       <c r="N122" s="13"/>
       <c r="O122" s="2"/>
     </row>
-    <row r="123" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="4"/>
       <c r="B123" s="4"/>
       <c r="C123" s="11"/>
@@ -8538,7 +8973,7 @@
       <c r="N123" s="13"/>
       <c r="O123" s="2"/>
     </row>
-    <row r="124" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="4"/>
       <c r="B124" s="4"/>
       <c r="C124" s="11"/>
@@ -8555,7 +8990,7 @@
       <c r="N124" s="13"/>
       <c r="O124" s="2"/>
     </row>
-    <row r="125" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="4"/>
       <c r="B125" s="4"/>
       <c r="C125" s="11"/>
@@ -8572,7 +9007,7 @@
       <c r="N125" s="13"/>
       <c r="O125" s="2"/>
     </row>
-    <row r="126" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="4"/>
       <c r="B126" s="4"/>
       <c r="C126" s="11"/>
@@ -8589,7 +9024,7 @@
       <c r="N126" s="13"/>
       <c r="O126" s="2"/>
     </row>
-    <row r="127" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
       <c r="B127" s="4"/>
       <c r="C127" s="11"/>
@@ -8606,7 +9041,7 @@
       <c r="N127" s="13"/>
       <c r="O127" s="2"/>
     </row>
-    <row r="128" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
       <c r="B128" s="4"/>
       <c r="C128" s="11"/>
@@ -8623,7 +9058,7 @@
       <c r="N128" s="13"/>
       <c r="O128" s="2"/>
     </row>
-    <row r="129" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="4"/>
       <c r="B129" s="4"/>
       <c r="C129" s="11"/>
@@ -8640,7 +9075,7 @@
       <c r="N129" s="13"/>
       <c r="O129" s="2"/>
     </row>
-    <row r="130" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="4"/>
       <c r="B130" s="4"/>
       <c r="C130" s="11"/>
@@ -8657,7 +9092,7 @@
       <c r="N130" s="13"/>
       <c r="O130" s="2"/>
     </row>
-    <row r="131" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="4"/>
       <c r="B131" s="4"/>
       <c r="C131" s="11"/>
@@ -8674,7 +9109,7 @@
       <c r="N131" s="13"/>
       <c r="O131" s="2"/>
     </row>
-    <row r="132" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="4"/>
       <c r="B132" s="4"/>
       <c r="C132" s="11"/>
@@ -8691,7 +9126,7 @@
       <c r="N132" s="13"/>
       <c r="O132" s="2"/>
     </row>
-    <row r="133" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="4"/>
       <c r="B133" s="4"/>
       <c r="C133" s="11"/>
@@ -8708,7 +9143,7 @@
       <c r="N133" s="13"/>
       <c r="O133" s="2"/>
     </row>
-    <row r="134" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
       <c r="B134" s="4"/>
       <c r="C134" s="11"/>
@@ -8725,7 +9160,7 @@
       <c r="N134" s="13"/>
       <c r="O134" s="2"/>
     </row>
-    <row r="135" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="4"/>
       <c r="B135" s="4"/>
       <c r="C135" s="11"/>
@@ -8742,7 +9177,7 @@
       <c r="N135" s="13"/>
       <c r="O135" s="2"/>
     </row>
-    <row r="136" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="4"/>
       <c r="B136" s="4"/>
       <c r="C136" s="11"/>
@@ -8759,7 +9194,7 @@
       <c r="N136" s="13"/>
       <c r="O136" s="2"/>
     </row>
-    <row r="137" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="4"/>
       <c r="B137" s="4"/>
       <c r="C137" s="11"/>
@@ -8776,7 +9211,7 @@
       <c r="N137" s="13"/>
       <c r="O137" s="2"/>
     </row>
-    <row r="138" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="4"/>
       <c r="B138" s="4"/>
       <c r="C138" s="11"/>
@@ -8793,7 +9228,7 @@
       <c r="N138" s="13"/>
       <c r="O138" s="2"/>
     </row>
-    <row r="139" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="4"/>
       <c r="B139" s="4"/>
       <c r="C139" s="11"/>
@@ -8810,7 +9245,7 @@
       <c r="N139" s="13"/>
       <c r="O139" s="2"/>
     </row>
-    <row r="140" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="4"/>
       <c r="B140" s="4"/>
       <c r="C140" s="11"/>
@@ -8827,7 +9262,7 @@
       <c r="N140" s="13"/>
       <c r="O140" s="2"/>
     </row>
-    <row r="141" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="4"/>
       <c r="B141" s="4"/>
       <c r="C141" s="11"/>
@@ -8844,7 +9279,7 @@
       <c r="N141" s="13"/>
       <c r="O141" s="2"/>
     </row>
-    <row r="142" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="4"/>
       <c r="B142" s="4"/>
       <c r="C142" s="11"/>
@@ -8861,7 +9296,7 @@
       <c r="N142" s="13"/>
       <c r="O142" s="2"/>
     </row>
-    <row r="143" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="4"/>
       <c r="B143" s="4"/>
       <c r="C143" s="11"/>
@@ -8878,7 +9313,7 @@
       <c r="N143" s="13"/>
       <c r="O143" s="2"/>
     </row>
-    <row r="144" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="4"/>
       <c r="B144" s="4"/>
       <c r="C144" s="11"/>
@@ -8895,7 +9330,7 @@
       <c r="N144" s="13"/>
       <c r="O144" s="2"/>
     </row>
-    <row r="145" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="4"/>
       <c r="B145" s="4"/>
       <c r="C145" s="11"/>
@@ -8912,7 +9347,7 @@
       <c r="N145" s="13"/>
       <c r="O145" s="2"/>
     </row>
-    <row r="146" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="4"/>
       <c r="B146" s="4"/>
       <c r="C146" s="11"/>
@@ -8929,7 +9364,7 @@
       <c r="N146" s="13"/>
       <c r="O146" s="2"/>
     </row>
-    <row r="147" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="4"/>
       <c r="B147" s="4"/>
       <c r="C147" s="11"/>
@@ -8946,7 +9381,7 @@
       <c r="N147" s="13"/>
       <c r="O147" s="2"/>
     </row>
-    <row r="148" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="4"/>
       <c r="B148" s="4"/>
       <c r="C148" s="11"/>
@@ -8963,7 +9398,7 @@
       <c r="N148" s="13"/>
       <c r="O148" s="2"/>
     </row>
-    <row r="149" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="4"/>
       <c r="B149" s="4"/>
       <c r="C149" s="11"/>
@@ -8980,7 +9415,7 @@
       <c r="N149" s="13"/>
       <c r="O149" s="2"/>
     </row>
-    <row r="150" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="4"/>
       <c r="B150" s="4"/>
       <c r="C150" s="11"/>
@@ -8997,7 +9432,7 @@
       <c r="N150" s="13"/>
       <c r="O150" s="2"/>
     </row>
-    <row r="151" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="4"/>
       <c r="B151" s="4"/>
       <c r="C151" s="11"/>
@@ -9014,7 +9449,7 @@
       <c r="N151" s="13"/>
       <c r="O151" s="2"/>
     </row>
-    <row r="152" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="4"/>
       <c r="B152" s="4"/>
       <c r="C152" s="11"/>
@@ -9031,7 +9466,7 @@
       <c r="N152" s="13"/>
       <c r="O152" s="2"/>
     </row>
-    <row r="153" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="4"/>
       <c r="B153" s="4"/>
       <c r="C153" s="11"/>
@@ -9048,7 +9483,7 @@
       <c r="N153" s="13"/>
       <c r="O153" s="2"/>
     </row>
-    <row r="154" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="4"/>
       <c r="B154" s="4"/>
       <c r="C154" s="11"/>
@@ -9065,7 +9500,7 @@
       <c r="N154" s="13"/>
       <c r="O154" s="2"/>
     </row>
-    <row r="155" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="4"/>
       <c r="B155" s="4"/>
       <c r="C155" s="11"/>
@@ -9082,7 +9517,7 @@
       <c r="N155" s="13"/>
       <c r="O155" s="2"/>
     </row>
-    <row r="156" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="4"/>
       <c r="B156" s="4"/>
       <c r="C156" s="11"/>
@@ -9099,7 +9534,7 @@
       <c r="N156" s="13"/>
       <c r="O156" s="2"/>
     </row>
-    <row r="157" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="4"/>
       <c r="B157" s="4"/>
       <c r="C157" s="11"/>
@@ -9116,7 +9551,7 @@
       <c r="N157" s="13"/>
       <c r="O157" s="2"/>
     </row>
-    <row r="158" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="4"/>
       <c r="B158" s="4"/>
       <c r="C158" s="11"/>
@@ -9133,7 +9568,7 @@
       <c r="N158" s="13"/>
       <c r="O158" s="2"/>
     </row>
-    <row r="159" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="4"/>
       <c r="B159" s="4"/>
       <c r="C159" s="11"/>
@@ -9150,7 +9585,7 @@
       <c r="N159" s="13"/>
       <c r="O159" s="2"/>
     </row>
-    <row r="160" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="4"/>
       <c r="B160" s="4"/>
       <c r="C160" s="11"/>
@@ -9167,7 +9602,7 @@
       <c r="N160" s="13"/>
       <c r="O160" s="2"/>
     </row>
-    <row r="161" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="4"/>
       <c r="B161" s="4"/>
       <c r="C161" s="11"/>
@@ -9184,7 +9619,7 @@
       <c r="N161" s="13"/>
       <c r="O161" s="2"/>
     </row>
-    <row r="162" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="4"/>
       <c r="B162" s="4"/>
       <c r="C162" s="11"/>
@@ -9201,7 +9636,7 @@
       <c r="N162" s="13"/>
       <c r="O162" s="2"/>
     </row>
-    <row r="163" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="4"/>
       <c r="B163" s="4"/>
       <c r="C163" s="11"/>
@@ -9218,7 +9653,7 @@
       <c r="N163" s="13"/>
       <c r="O163" s="2"/>
     </row>
-    <row r="164" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="4"/>
       <c r="B164" s="4"/>
       <c r="C164" s="11"/>
@@ -9235,7 +9670,7 @@
       <c r="N164" s="13"/>
       <c r="O164" s="2"/>
     </row>
-    <row r="165" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="4"/>
       <c r="B165" s="4"/>
       <c r="C165" s="11"/>
@@ -9252,7 +9687,7 @@
       <c r="N165" s="13"/>
       <c r="O165" s="2"/>
     </row>
-    <row r="166" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="4"/>
       <c r="B166" s="4"/>
       <c r="C166" s="11"/>
@@ -9269,7 +9704,7 @@
       <c r="N166" s="13"/>
       <c r="O166" s="2"/>
     </row>
-    <row r="167" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="4"/>
       <c r="B167" s="4"/>
       <c r="C167" s="11"/>
@@ -9286,7 +9721,7 @@
       <c r="N167" s="13"/>
       <c r="O167" s="2"/>
     </row>
-    <row r="168" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="4"/>
       <c r="B168" s="4"/>
       <c r="C168" s="11"/>
@@ -9303,7 +9738,7 @@
       <c r="N168" s="13"/>
       <c r="O168" s="2"/>
     </row>
-    <row r="169" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="4"/>
       <c r="B169" s="4"/>
       <c r="C169" s="11"/>
@@ -9320,7 +9755,7 @@
       <c r="N169" s="13"/>
       <c r="O169" s="2"/>
     </row>
-    <row r="170" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="4"/>
       <c r="B170" s="4"/>
       <c r="C170" s="11"/>
@@ -9337,7 +9772,7 @@
       <c r="N170" s="13"/>
       <c r="O170" s="2"/>
     </row>
-    <row r="171" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="4"/>
       <c r="B171" s="4"/>
       <c r="C171" s="11"/>
@@ -9354,7 +9789,7 @@
       <c r="N171" s="13"/>
       <c r="O171" s="2"/>
     </row>
-    <row r="172" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="4"/>
       <c r="B172" s="4"/>
       <c r="C172" s="11"/>
@@ -9371,7 +9806,7 @@
       <c r="N172" s="13"/>
       <c r="O172" s="2"/>
     </row>
-    <row r="173" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="4"/>
       <c r="B173" s="4"/>
       <c r="C173" s="11"/>
@@ -9388,7 +9823,7 @@
       <c r="N173" s="13"/>
       <c r="O173" s="2"/>
     </row>
-    <row r="174" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="4"/>
       <c r="B174" s="4"/>
       <c r="C174" s="11"/>
@@ -9405,7 +9840,7 @@
       <c r="N174" s="13"/>
       <c r="O174" s="2"/>
     </row>
-    <row r="175" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="4"/>
       <c r="B175" s="4"/>
       <c r="C175" s="11"/>
@@ -9422,7 +9857,7 @@
       <c r="N175" s="13"/>
       <c r="O175" s="2"/>
     </row>
-    <row r="176" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="4"/>
       <c r="B176" s="4"/>
       <c r="C176" s="11"/>
@@ -9439,7 +9874,7 @@
       <c r="N176" s="13"/>
       <c r="O176" s="2"/>
     </row>
-    <row r="177" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="4"/>
       <c r="B177" s="4"/>
       <c r="C177" s="11"/>
@@ -9456,7 +9891,7 @@
       <c r="N177" s="13"/>
       <c r="O177" s="2"/>
     </row>
-    <row r="178" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="4"/>
       <c r="B178" s="4"/>
       <c r="C178" s="11"/>
@@ -9473,7 +9908,7 @@
       <c r="N178" s="13"/>
       <c r="O178" s="2"/>
     </row>
-    <row r="179" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="4"/>
       <c r="B179" s="4"/>
       <c r="C179" s="11"/>
@@ -9490,7 +9925,7 @@
       <c r="N179" s="13"/>
       <c r="O179" s="2"/>
     </row>
-    <row r="180" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="4"/>
       <c r="B180" s="4"/>
       <c r="C180" s="11"/>
@@ -9507,7 +9942,7 @@
       <c r="N180" s="13"/>
       <c r="O180" s="2"/>
     </row>
-    <row r="181" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="4"/>
       <c r="B181" s="4"/>
       <c r="C181" s="11"/>
@@ -9524,7 +9959,7 @@
       <c r="N181" s="13"/>
       <c r="O181" s="2"/>
     </row>
-    <row r="182" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="4"/>
       <c r="B182" s="4"/>
       <c r="C182" s="11"/>
@@ -9541,7 +9976,7 @@
       <c r="N182" s="13"/>
       <c r="O182" s="2"/>
     </row>
-    <row r="183" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="4"/>
       <c r="B183" s="4"/>
       <c r="C183" s="11"/>
@@ -9558,7 +9993,7 @@
       <c r="N183" s="13"/>
       <c r="O183" s="2"/>
     </row>
-    <row r="184" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="4"/>
       <c r="B184" s="4"/>
       <c r="C184" s="11"/>
@@ -9575,7 +10010,7 @@
       <c r="N184" s="13"/>
       <c r="O184" s="2"/>
     </row>
-    <row r="185" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="4"/>
       <c r="B185" s="4"/>
       <c r="C185" s="11"/>
@@ -9592,7 +10027,7 @@
       <c r="N185" s="13"/>
       <c r="O185" s="2"/>
     </row>
-    <row r="186" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="4"/>
       <c r="B186" s="4"/>
       <c r="C186" s="11"/>
@@ -9609,7 +10044,7 @@
       <c r="N186" s="13"/>
       <c r="O186" s="2"/>
     </row>
-    <row r="187" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="4"/>
       <c r="B187" s="4"/>
       <c r="C187" s="11"/>
@@ -9626,7 +10061,7 @@
       <c r="N187" s="13"/>
       <c r="O187" s="2"/>
     </row>
-    <row r="188" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="4"/>
       <c r="B188" s="4"/>
       <c r="C188" s="11"/>
@@ -9643,7 +10078,7 @@
       <c r="N188" s="13"/>
       <c r="O188" s="2"/>
     </row>
-    <row r="189" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="4"/>
       <c r="B189" s="4"/>
       <c r="C189" s="11"/>
@@ -9660,7 +10095,7 @@
       <c r="N189" s="13"/>
       <c r="O189" s="2"/>
     </row>
-    <row r="190" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="4"/>
       <c r="B190" s="4"/>
       <c r="C190" s="11"/>
@@ -9677,7 +10112,7 @@
       <c r="N190" s="13"/>
       <c r="O190" s="2"/>
     </row>
-    <row r="191" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="4"/>
       <c r="B191" s="4"/>
       <c r="C191" s="11"/>
@@ -9694,7 +10129,7 @@
       <c r="N191" s="13"/>
       <c r="O191" s="2"/>
     </row>
-    <row r="192" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="4"/>
       <c r="B192" s="4"/>
       <c r="C192" s="11"/>
@@ -9711,7 +10146,7 @@
       <c r="N192" s="13"/>
       <c r="O192" s="2"/>
     </row>
-    <row r="193" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="4"/>
       <c r="B193" s="4"/>
       <c r="C193" s="11"/>
@@ -9728,7 +10163,7 @@
       <c r="N193" s="13"/>
       <c r="O193" s="2"/>
     </row>
-    <row r="194" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="4"/>
       <c r="B194" s="4"/>
       <c r="C194" s="11"/>
@@ -9745,7 +10180,7 @@
       <c r="N194" s="13"/>
       <c r="O194" s="2"/>
     </row>
-    <row r="195" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="4"/>
       <c r="B195" s="4"/>
       <c r="C195" s="11"/>
@@ -9762,7 +10197,7 @@
       <c r="N195" s="13"/>
       <c r="O195" s="2"/>
     </row>
-    <row r="196" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="4"/>
       <c r="B196" s="4"/>
       <c r="C196" s="11"/>
@@ -9779,7 +10214,7 @@
       <c r="N196" s="13"/>
       <c r="O196" s="2"/>
     </row>
-    <row r="197" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="4"/>
       <c r="B197" s="4"/>
       <c r="C197" s="11"/>
@@ -9796,7 +10231,7 @@
       <c r="N197" s="13"/>
       <c r="O197" s="2"/>
     </row>
-    <row r="198" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="4"/>
       <c r="B198" s="4"/>
       <c r="C198" s="11"/>
@@ -9813,7 +10248,7 @@
       <c r="N198" s="13"/>
       <c r="O198" s="2"/>
     </row>
-    <row r="199" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="4"/>
       <c r="B199" s="4"/>
       <c r="C199" s="11"/>
@@ -9830,7 +10265,7 @@
       <c r="N199" s="13"/>
       <c r="O199" s="2"/>
     </row>
-    <row r="200" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="4"/>
       <c r="B200" s="4"/>
       <c r="C200" s="11"/>
@@ -9847,7 +10282,7 @@
       <c r="N200" s="13"/>
       <c r="O200" s="2"/>
     </row>
-    <row r="201" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="4"/>
       <c r="B201" s="4"/>
       <c r="C201" s="11"/>
@@ -9864,7 +10299,7 @@
       <c r="N201" s="13"/>
       <c r="O201" s="2"/>
     </row>
-    <row r="202" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="4"/>
       <c r="B202" s="4"/>
       <c r="C202" s="11"/>
@@ -9881,7 +10316,7 @@
       <c r="N202" s="13"/>
       <c r="O202" s="2"/>
     </row>
-    <row r="203" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="4"/>
       <c r="B203" s="4"/>
       <c r="C203" s="11"/>
@@ -9898,7 +10333,7 @@
       <c r="N203" s="13"/>
       <c r="O203" s="2"/>
     </row>
-    <row r="204" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="4"/>
       <c r="B204" s="4"/>
       <c r="C204" s="11"/>
@@ -9915,7 +10350,7 @@
       <c r="N204" s="13"/>
       <c r="O204" s="2"/>
     </row>
-    <row r="205" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="4"/>
       <c r="B205" s="4"/>
       <c r="C205" s="11"/>
@@ -9932,7 +10367,7 @@
       <c r="N205" s="13"/>
       <c r="O205" s="2"/>
     </row>
-    <row r="206" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="4"/>
       <c r="B206" s="4"/>
       <c r="C206" s="11"/>
@@ -9949,7 +10384,7 @@
       <c r="N206" s="13"/>
       <c r="O206" s="2"/>
     </row>
-    <row r="207" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="4"/>
       <c r="B207" s="4"/>
       <c r="C207" s="11"/>
@@ -9966,7 +10401,7 @@
       <c r="N207" s="13"/>
       <c r="O207" s="2"/>
     </row>
-    <row r="208" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="4"/>
       <c r="B208" s="4"/>
       <c r="C208" s="11"/>
@@ -9983,7 +10418,7 @@
       <c r="N208" s="13"/>
       <c r="O208" s="2"/>
     </row>
-    <row r="209" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="4"/>
       <c r="B209" s="4"/>
       <c r="C209" s="11"/>
@@ -10000,7 +10435,7 @@
       <c r="N209" s="13"/>
       <c r="O209" s="2"/>
     </row>
-    <row r="210" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="4"/>
       <c r="B210" s="4"/>
       <c r="C210" s="11"/>
@@ -10017,7 +10452,7 @@
       <c r="N210" s="13"/>
       <c r="O210" s="2"/>
     </row>
-    <row r="211" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="4"/>
       <c r="B211" s="4"/>
       <c r="C211" s="11"/>
@@ -10034,7 +10469,7 @@
       <c r="N211" s="13"/>
       <c r="O211" s="2"/>
     </row>
-    <row r="212" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="4"/>
       <c r="B212" s="4"/>
       <c r="C212" s="11"/>
@@ -10051,7 +10486,7 @@
       <c r="N212" s="13"/>
       <c r="O212" s="2"/>
     </row>
-    <row r="213" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="4"/>
       <c r="B213" s="4"/>
       <c r="C213" s="11"/>
@@ -10068,7 +10503,7 @@
       <c r="N213" s="13"/>
       <c r="O213" s="2"/>
     </row>
-    <row r="214" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="4"/>
       <c r="B214" s="4"/>
       <c r="C214" s="11"/>
@@ -10085,7 +10520,7 @@
       <c r="N214" s="13"/>
       <c r="O214" s="2"/>
     </row>
-    <row r="215" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="4"/>
       <c r="B215" s="4"/>
       <c r="C215" s="11"/>
@@ -10102,7 +10537,7 @@
       <c r="N215" s="13"/>
       <c r="O215" s="2"/>
     </row>
-    <row r="216" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="4"/>
       <c r="B216" s="4"/>
       <c r="C216" s="11"/>
@@ -10119,7 +10554,7 @@
       <c r="N216" s="13"/>
       <c r="O216" s="2"/>
     </row>
-    <row r="217" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="4"/>
       <c r="B217" s="4"/>
       <c r="C217" s="11"/>
@@ -10136,7 +10571,7 @@
       <c r="N217" s="13"/>
       <c r="O217" s="2"/>
     </row>
-    <row r="218" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="4"/>
       <c r="B218" s="4"/>
       <c r="C218" s="11"/>
@@ -10153,7 +10588,7 @@
       <c r="N218" s="13"/>
       <c r="O218" s="2"/>
     </row>
-    <row r="219" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="4"/>
       <c r="B219" s="4"/>
       <c r="C219" s="11"/>
@@ -10170,7 +10605,7 @@
       <c r="N219" s="13"/>
       <c r="O219" s="2"/>
     </row>
-    <row r="220" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="4"/>
       <c r="B220" s="4"/>
       <c r="C220" s="11"/>
@@ -10187,7 +10622,7 @@
       <c r="N220" s="13"/>
       <c r="O220" s="2"/>
     </row>
-    <row r="221" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="4"/>
       <c r="B221" s="4"/>
       <c r="C221" s="11"/>
@@ -10204,7 +10639,7 @@
       <c r="N221" s="13"/>
       <c r="O221" s="2"/>
     </row>
-    <row r="222" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="4"/>
       <c r="B222" s="4"/>
       <c r="C222" s="11"/>
@@ -10221,7 +10656,7 @@
       <c r="N222" s="13"/>
       <c r="O222" s="2"/>
     </row>
-    <row r="223" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="4"/>
       <c r="B223" s="4"/>
       <c r="C223" s="11"/>
@@ -10238,7 +10673,7 @@
       <c r="N223" s="13"/>
       <c r="O223" s="2"/>
     </row>
-    <row r="224" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="4"/>
       <c r="B224" s="4"/>
       <c r="C224" s="11"/>
@@ -10255,7 +10690,7 @@
       <c r="N224" s="13"/>
       <c r="O224" s="2"/>
     </row>
-    <row r="225" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="4"/>
       <c r="B225" s="4"/>
       <c r="C225" s="11"/>
@@ -10272,7 +10707,7 @@
       <c r="N225" s="13"/>
       <c r="O225" s="2"/>
     </row>
-    <row r="226" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="4"/>
       <c r="B226" s="4"/>
       <c r="C226" s="11"/>
@@ -10289,7 +10724,7 @@
       <c r="N226" s="13"/>
       <c r="O226" s="2"/>
     </row>
-    <row r="227" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="4"/>
       <c r="B227" s="4"/>
       <c r="C227" s="11"/>
@@ -10306,7 +10741,7 @@
       <c r="N227" s="13"/>
       <c r="O227" s="2"/>
     </row>
-    <row r="228" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="4"/>
       <c r="B228" s="4"/>
       <c r="C228" s="11"/>
@@ -10323,7 +10758,7 @@
       <c r="N228" s="13"/>
       <c r="O228" s="2"/>
     </row>
-    <row r="229" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="4"/>
       <c r="B229" s="4"/>
       <c r="C229" s="11"/>
@@ -10340,7 +10775,7 @@
       <c r="N229" s="13"/>
       <c r="O229" s="2"/>
     </row>
-    <row r="230" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="4"/>
       <c r="B230" s="4"/>
       <c r="C230" s="11"/>
@@ -10357,7 +10792,7 @@
       <c r="N230" s="13"/>
       <c r="O230" s="2"/>
     </row>
-    <row r="231" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="4"/>
       <c r="B231" s="4"/>
       <c r="C231" s="11"/>
@@ -10374,7 +10809,7 @@
       <c r="N231" s="13"/>
       <c r="O231" s="2"/>
     </row>
-    <row r="232" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="4"/>
       <c r="B232" s="4"/>
       <c r="C232" s="11"/>
@@ -10391,7 +10826,7 @@
       <c r="N232" s="13"/>
       <c r="O232" s="2"/>
     </row>
-    <row r="233" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="4"/>
       <c r="B233" s="4"/>
       <c r="C233" s="11"/>
@@ -10408,7 +10843,7 @@
       <c r="N233" s="13"/>
       <c r="O233" s="2"/>
     </row>
-    <row r="234" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="4"/>
       <c r="B234" s="4"/>
       <c r="C234" s="11"/>
@@ -10425,7 +10860,7 @@
       <c r="N234" s="13"/>
       <c r="O234" s="2"/>
     </row>
-    <row r="235" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="4"/>
       <c r="B235" s="4"/>
       <c r="C235" s="11"/>
@@ -10442,7 +10877,7 @@
       <c r="N235" s="13"/>
       <c r="O235" s="2"/>
     </row>
-    <row r="236" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="4"/>
       <c r="B236" s="4"/>
       <c r="C236" s="11"/>
@@ -10459,7 +10894,7 @@
       <c r="N236" s="13"/>
       <c r="O236" s="2"/>
     </row>
-    <row r="237" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="4"/>
       <c r="B237" s="4"/>
       <c r="C237" s="11"/>
@@ -10476,7 +10911,7 @@
       <c r="N237" s="13"/>
       <c r="O237" s="2"/>
     </row>
-    <row r="238" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="4"/>
       <c r="B238" s="4"/>
       <c r="C238" s="11"/>
@@ -10493,7 +10928,7 @@
       <c r="N238" s="13"/>
       <c r="O238" s="2"/>
     </row>
-    <row r="239" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="4"/>
       <c r="B239" s="4"/>
       <c r="C239" s="11"/>
@@ -10510,7 +10945,7 @@
       <c r="N239" s="13"/>
       <c r="O239" s="2"/>
     </row>
-    <row r="240" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="4"/>
       <c r="B240" s="4"/>
       <c r="C240" s="11"/>
@@ -10527,7 +10962,7 @@
       <c r="N240" s="13"/>
       <c r="O240" s="2"/>
     </row>
-    <row r="241" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="4"/>
       <c r="B241" s="4"/>
       <c r="C241" s="11"/>
@@ -10544,7 +10979,7 @@
       <c r="N241" s="13"/>
       <c r="O241" s="2"/>
     </row>
-    <row r="242" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="4"/>
       <c r="B242" s="4"/>
       <c r="C242" s="11"/>
@@ -10561,7 +10996,7 @@
       <c r="N242" s="13"/>
       <c r="O242" s="2"/>
     </row>
-    <row r="243" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="4"/>
       <c r="B243" s="4"/>
       <c r="C243" s="11"/>
@@ -10578,7 +11013,7 @@
       <c r="N243" s="13"/>
       <c r="O243" s="2"/>
     </row>
-    <row r="244" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="4"/>
       <c r="B244" s="4"/>
       <c r="C244" s="11"/>
@@ -10595,7 +11030,7 @@
       <c r="N244" s="13"/>
       <c r="O244" s="2"/>
     </row>
-    <row r="245" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="4"/>
       <c r="B245" s="4"/>
       <c r="C245" s="11"/>
@@ -10612,7 +11047,7 @@
       <c r="N245" s="13"/>
       <c r="O245" s="2"/>
     </row>
-    <row r="246" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="4"/>
       <c r="B246" s="4"/>
       <c r="C246" s="11"/>
@@ -10629,7 +11064,7 @@
       <c r="N246" s="13"/>
       <c r="O246" s="2"/>
     </row>
-    <row r="247" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="4"/>
       <c r="B247" s="4"/>
       <c r="C247" s="11"/>
@@ -10646,7 +11081,7 @@
       <c r="N247" s="13"/>
       <c r="O247" s="2"/>
     </row>
-    <row r="248" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="4"/>
       <c r="B248" s="4"/>
       <c r="C248" s="11"/>
@@ -10663,7 +11098,7 @@
       <c r="N248" s="13"/>
       <c r="O248" s="2"/>
     </row>
-    <row r="249" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="4"/>
       <c r="B249" s="4"/>
       <c r="C249" s="11"/>
@@ -10680,7 +11115,7 @@
       <c r="N249" s="13"/>
       <c r="O249" s="2"/>
     </row>
-    <row r="250" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="4"/>
       <c r="B250" s="4"/>
       <c r="C250" s="11"/>
@@ -10697,7 +11132,7 @@
       <c r="N250" s="13"/>
       <c r="O250" s="2"/>
     </row>
-    <row r="251" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="4"/>
       <c r="B251" s="4"/>
       <c r="C251" s="11"/>
@@ -10714,7 +11149,7 @@
       <c r="N251" s="13"/>
       <c r="O251" s="2"/>
     </row>
-    <row r="252" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="4"/>
       <c r="B252" s="4"/>
       <c r="C252" s="11"/>
@@ -10731,7 +11166,7 @@
       <c r="N252" s="13"/>
       <c r="O252" s="2"/>
     </row>
-    <row r="253" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="4"/>
       <c r="B253" s="4"/>
       <c r="C253" s="11"/>
@@ -10748,7 +11183,7 @@
       <c r="N253" s="13"/>
       <c r="O253" s="2"/>
     </row>
-    <row r="254" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="4"/>
       <c r="B254" s="4"/>
       <c r="C254" s="11"/>
@@ -10765,7 +11200,7 @@
       <c r="N254" s="13"/>
       <c r="O254" s="2"/>
     </row>
-    <row r="255" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="4"/>
       <c r="B255" s="4"/>
       <c r="C255" s="11"/>
@@ -10782,7 +11217,7 @@
       <c r="N255" s="13"/>
       <c r="O255" s="2"/>
     </row>
-    <row r="256" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="4"/>
       <c r="B256" s="4"/>
       <c r="C256" s="11"/>
@@ -10799,7 +11234,7 @@
       <c r="N256" s="13"/>
       <c r="O256" s="2"/>
     </row>
-    <row r="257" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="4"/>
       <c r="B257" s="4"/>
       <c r="C257" s="11"/>
@@ -10816,7 +11251,7 @@
       <c r="N257" s="13"/>
       <c r="O257" s="2"/>
     </row>
-    <row r="258" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="4"/>
       <c r="B258" s="4"/>
       <c r="C258" s="11"/>
@@ -10833,7 +11268,7 @@
       <c r="N258" s="13"/>
       <c r="O258" s="2"/>
     </row>
-    <row r="259" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="4"/>
       <c r="B259" s="4"/>
       <c r="C259" s="11"/>
@@ -10850,7 +11285,7 @@
       <c r="N259" s="13"/>
       <c r="O259" s="2"/>
     </row>
-    <row r="260" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="4"/>
       <c r="B260" s="4"/>
       <c r="C260" s="11"/>
@@ -10867,7 +11302,7 @@
       <c r="N260" s="13"/>
       <c r="O260" s="2"/>
     </row>
-    <row r="261" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="4"/>
       <c r="B261" s="4"/>
       <c r="C261" s="11"/>
@@ -10884,7 +11319,7 @@
       <c r="N261" s="13"/>
       <c r="O261" s="2"/>
     </row>
-    <row r="262" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="4"/>
       <c r="B262" s="4"/>
       <c r="C262" s="11"/>
@@ -10901,7 +11336,7 @@
       <c r="N262" s="13"/>
       <c r="O262" s="2"/>
     </row>
-    <row r="263" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="4"/>
       <c r="B263" s="4"/>
       <c r="C263" s="11"/>
@@ -10918,7 +11353,7 @@
       <c r="N263" s="13"/>
       <c r="O263" s="2"/>
     </row>
-    <row r="264" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="4"/>
       <c r="B264" s="4"/>
       <c r="C264" s="11"/>
@@ -10935,7 +11370,7 @@
       <c r="N264" s="13"/>
       <c r="O264" s="2"/>
     </row>
-    <row r="265" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="4"/>
       <c r="B265" s="4"/>
       <c r="C265" s="11"/>
@@ -10952,7 +11387,7 @@
       <c r="N265" s="13"/>
       <c r="O265" s="2"/>
     </row>
-    <row r="266" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="4"/>
       <c r="B266" s="4"/>
       <c r="C266" s="11"/>
@@ -10969,7 +11404,7 @@
       <c r="N266" s="13"/>
       <c r="O266" s="2"/>
     </row>
-    <row r="267" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="4"/>
       <c r="B267" s="4"/>
       <c r="C267" s="11"/>
@@ -10986,7 +11421,7 @@
       <c r="N267" s="13"/>
       <c r="O267" s="2"/>
     </row>
-    <row r="268" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="4"/>
       <c r="B268" s="4"/>
       <c r="C268" s="11"/>
@@ -11003,7 +11438,7 @@
       <c r="N268" s="13"/>
       <c r="O268" s="2"/>
     </row>
-    <row r="269" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="4"/>
       <c r="B269" s="4"/>
       <c r="C269" s="11"/>
@@ -11020,7 +11455,7 @@
       <c r="N269" s="13"/>
       <c r="O269" s="2"/>
     </row>
-    <row r="270" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="4"/>
       <c r="B270" s="4"/>
       <c r="C270" s="11"/>
@@ -11037,7 +11472,7 @@
       <c r="N270" s="13"/>
       <c r="O270" s="2"/>
     </row>
-    <row r="271" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="4"/>
       <c r="B271" s="4"/>
       <c r="C271" s="11"/>
@@ -11054,7 +11489,7 @@
       <c r="N271" s="13"/>
       <c r="O271" s="2"/>
     </row>
-    <row r="272" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="4"/>
       <c r="B272" s="4"/>
       <c r="C272" s="11"/>
@@ -11071,7 +11506,7 @@
       <c r="N272" s="13"/>
       <c r="O272" s="2"/>
     </row>
-    <row r="273" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="4"/>
       <c r="B273" s="4"/>
       <c r="C273" s="11"/>
@@ -11088,7 +11523,7 @@
       <c r="N273" s="13"/>
       <c r="O273" s="2"/>
     </row>
-    <row r="274" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="4"/>
       <c r="B274" s="4"/>
       <c r="C274" s="11"/>
@@ -11105,7 +11540,7 @@
       <c r="N274" s="13"/>
       <c r="O274" s="2"/>
     </row>
-    <row r="275" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="4"/>
       <c r="B275" s="4"/>
       <c r="C275" s="11"/>
@@ -11122,7 +11557,7 @@
       <c r="N275" s="13"/>
       <c r="O275" s="2"/>
     </row>
-    <row r="276" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="4"/>
       <c r="B276" s="4"/>
       <c r="C276" s="11"/>
@@ -11139,7 +11574,7 @@
       <c r="N276" s="13"/>
       <c r="O276" s="2"/>
     </row>
-    <row r="277" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="4"/>
       <c r="B277" s="4"/>
       <c r="C277" s="11"/>
@@ -11156,7 +11591,7 @@
       <c r="N277" s="13"/>
       <c r="O277" s="2"/>
     </row>
-    <row r="278" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="4"/>
       <c r="B278" s="4"/>
       <c r="C278" s="11"/>
@@ -11173,7 +11608,7 @@
       <c r="N278" s="13"/>
       <c r="O278" s="2"/>
     </row>
-    <row r="279" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="4"/>
       <c r="B279" s="4"/>
       <c r="C279" s="11"/>
@@ -11190,7 +11625,7 @@
       <c r="N279" s="13"/>
       <c r="O279" s="2"/>
     </row>
-    <row r="280" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="4"/>
       <c r="B280" s="4"/>
       <c r="C280" s="11"/>
@@ -11207,7 +11642,7 @@
       <c r="N280" s="13"/>
       <c r="O280" s="2"/>
     </row>
-    <row r="281" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="4"/>
       <c r="B281" s="4"/>
       <c r="C281" s="11"/>
@@ -11224,7 +11659,7 @@
       <c r="N281" s="13"/>
       <c r="O281" s="2"/>
     </row>
-    <row r="282" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="4"/>
       <c r="B282" s="4"/>
       <c r="C282" s="11"/>
@@ -11241,7 +11676,7 @@
       <c r="N282" s="13"/>
       <c r="O282" s="2"/>
     </row>
-    <row r="283" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="4"/>
       <c r="B283" s="4"/>
       <c r="C283" s="11"/>
@@ -11258,7 +11693,7 @@
       <c r="N283" s="13"/>
       <c r="O283" s="2"/>
     </row>
-    <row r="284" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="4"/>
       <c r="B284" s="4"/>
       <c r="C284" s="11"/>
@@ -11275,7 +11710,7 @@
       <c r="N284" s="13"/>
       <c r="O284" s="2"/>
     </row>
-    <row r="285" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="4"/>
       <c r="B285" s="4"/>
       <c r="C285" s="11"/>
@@ -11292,7 +11727,7 @@
       <c r="N285" s="13"/>
       <c r="O285" s="2"/>
     </row>
-    <row r="286" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="4"/>
       <c r="B286" s="4"/>
       <c r="C286" s="11"/>
@@ -11309,7 +11744,7 @@
       <c r="N286" s="13"/>
       <c r="O286" s="2"/>
     </row>
-    <row r="287" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="4"/>
       <c r="B287" s="4"/>
       <c r="C287" s="11"/>
@@ -11326,7 +11761,7 @@
       <c r="N287" s="13"/>
       <c r="O287" s="2"/>
     </row>
-    <row r="288" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="4"/>
       <c r="B288" s="4"/>
       <c r="C288" s="11"/>
@@ -11343,7 +11778,7 @@
       <c r="N288" s="13"/>
       <c r="O288" s="2"/>
     </row>
-    <row r="289" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="4"/>
       <c r="B289" s="4"/>
       <c r="C289" s="11"/>
@@ -11360,7 +11795,7 @@
       <c r="N289" s="13"/>
       <c r="O289" s="2"/>
     </row>
-    <row r="290" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="4"/>
       <c r="B290" s="4"/>
       <c r="C290" s="11"/>
@@ -11377,7 +11812,7 @@
       <c r="N290" s="13"/>
       <c r="O290" s="2"/>
     </row>
-    <row r="291" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="4"/>
       <c r="B291" s="4"/>
       <c r="C291" s="11"/>
@@ -11394,7 +11829,7 @@
       <c r="N291" s="13"/>
       <c r="O291" s="2"/>
     </row>
-    <row r="292" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="4"/>
       <c r="B292" s="4"/>
       <c r="C292" s="11"/>
@@ -11411,7 +11846,7 @@
       <c r="N292" s="13"/>
       <c r="O292" s="2"/>
     </row>
-    <row r="293" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="4"/>
       <c r="B293" s="4"/>
       <c r="C293" s="11"/>
@@ -11428,7 +11863,7 @@
       <c r="N293" s="13"/>
       <c r="O293" s="2"/>
     </row>
-    <row r="294" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="4"/>
       <c r="B294" s="4"/>
       <c r="C294" s="11"/>
@@ -11445,7 +11880,7 @@
       <c r="N294" s="13"/>
       <c r="O294" s="2"/>
     </row>
-    <row r="295" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="4"/>
       <c r="B295" s="4"/>
       <c r="C295" s="11"/>
@@ -11462,7 +11897,7 @@
       <c r="N295" s="13"/>
       <c r="O295" s="2"/>
     </row>
-    <row r="296" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="4"/>
       <c r="B296" s="4"/>
       <c r="C296" s="11"/>
@@ -11479,7 +11914,7 @@
       <c r="N296" s="13"/>
       <c r="O296" s="2"/>
     </row>
-    <row r="297" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="4"/>
       <c r="B297" s="4"/>
       <c r="C297" s="11"/>
@@ -11496,7 +11931,7 @@
       <c r="N297" s="13"/>
       <c r="O297" s="2"/>
     </row>
-    <row r="298" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="4"/>
       <c r="B298" s="4"/>
       <c r="C298" s="11"/>
@@ -11513,7 +11948,7 @@
       <c r="N298" s="13"/>
       <c r="O298" s="2"/>
     </row>
-    <row r="299" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="4"/>
       <c r="B299" s="4"/>
       <c r="C299" s="11"/>
@@ -11530,7 +11965,7 @@
       <c r="N299" s="13"/>
       <c r="O299" s="2"/>
     </row>
-    <row r="300" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" s="4"/>
       <c r="B300" s="4"/>
       <c r="C300" s="11"/>
@@ -11547,7 +11982,7 @@
       <c r="N300" s="13"/>
       <c r="O300" s="2"/>
     </row>
-    <row r="301" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" s="4"/>
       <c r="B301" s="4"/>
       <c r="C301" s="11"/>
@@ -11564,7 +11999,7 @@
       <c r="N301" s="13"/>
       <c r="O301" s="2"/>
     </row>
-    <row r="302" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" s="4"/>
       <c r="B302" s="4"/>
       <c r="C302" s="11"/>
@@ -11581,7 +12016,7 @@
       <c r="N302" s="13"/>
       <c r="O302" s="2"/>
     </row>
-    <row r="303" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" s="4"/>
       <c r="B303" s="4"/>
       <c r="C303" s="11"/>
@@ -11598,7 +12033,7 @@
       <c r="N303" s="13"/>
       <c r="O303" s="2"/>
     </row>
-    <row r="304" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" s="4"/>
       <c r="B304" s="4"/>
       <c r="C304" s="11"/>
@@ -11615,7 +12050,7 @@
       <c r="N304" s="13"/>
       <c r="O304" s="2"/>
     </row>
-    <row r="305" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" s="4"/>
       <c r="B305" s="4"/>
       <c r="C305" s="11"/>
@@ -11632,7 +12067,7 @@
       <c r="N305" s="13"/>
       <c r="O305" s="2"/>
     </row>
-    <row r="306" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" s="4"/>
       <c r="B306" s="4"/>
       <c r="C306" s="11"/>
@@ -11649,7 +12084,7 @@
       <c r="N306" s="13"/>
       <c r="O306" s="2"/>
     </row>
-    <row r="307" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" s="4"/>
       <c r="B307" s="4"/>
       <c r="C307" s="11"/>
@@ -11666,7 +12101,7 @@
       <c r="N307" s="13"/>
       <c r="O307" s="2"/>
     </row>
-    <row r="308" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" s="4"/>
       <c r="B308" s="4"/>
       <c r="C308" s="11"/>
@@ -11683,7 +12118,7 @@
       <c r="N308" s="13"/>
       <c r="O308" s="2"/>
     </row>
-    <row r="309" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" s="4"/>
       <c r="B309" s="4"/>
       <c r="C309" s="11"/>
@@ -11700,7 +12135,7 @@
       <c r="N309" s="13"/>
       <c r="O309" s="2"/>
     </row>
-    <row r="310" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" s="4"/>
       <c r="B310" s="4"/>
       <c r="C310" s="11"/>
@@ -11717,7 +12152,7 @@
       <c r="N310" s="13"/>
       <c r="O310" s="2"/>
     </row>
-    <row r="311" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" s="4"/>
       <c r="B311" s="4"/>
       <c r="C311" s="11"/>
@@ -11734,7 +12169,7 @@
       <c r="N311" s="13"/>
       <c r="O311" s="2"/>
     </row>
-    <row r="312" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" s="4"/>
       <c r="B312" s="4"/>
       <c r="C312" s="11"/>
@@ -11751,7 +12186,7 @@
       <c r="N312" s="13"/>
       <c r="O312" s="2"/>
     </row>
-    <row r="313" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" s="4"/>
       <c r="B313" s="4"/>
       <c r="C313" s="11"/>
@@ -11768,7 +12203,7 @@
       <c r="N313" s="13"/>
       <c r="O313" s="2"/>
     </row>
-    <row r="314" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" s="4"/>
       <c r="B314" s="4"/>
       <c r="C314" s="11"/>
@@ -11785,7 +12220,7 @@
       <c r="N314" s="13"/>
       <c r="O314" s="2"/>
     </row>
-    <row r="315" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" s="4"/>
       <c r="B315" s="4"/>
       <c r="C315" s="11"/>
@@ -11802,7 +12237,7 @@
       <c r="N315" s="13"/>
       <c r="O315" s="2"/>
     </row>
-    <row r="316" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="11"/>
@@ -11819,7 +12254,7 @@
       <c r="N316" s="13"/>
       <c r="O316" s="2"/>
     </row>
-    <row r="317" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" s="4"/>
       <c r="B317" s="4"/>
       <c r="C317" s="11"/>
@@ -11836,7 +12271,7 @@
       <c r="N317" s="13"/>
       <c r="O317" s="2"/>
     </row>
-    <row r="318" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" s="4"/>
       <c r="B318" s="4"/>
       <c r="C318" s="11"/>
@@ -11853,7 +12288,7 @@
       <c r="N318" s="13"/>
       <c r="O318" s="2"/>
     </row>
-    <row r="319" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" s="4"/>
       <c r="B319" s="4"/>
       <c r="C319" s="11"/>
@@ -11870,7 +12305,7 @@
       <c r="N319" s="13"/>
       <c r="O319" s="2"/>
     </row>
-    <row r="320" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" s="4"/>
       <c r="B320" s="4"/>
       <c r="C320" s="11"/>
@@ -11887,7 +12322,7 @@
       <c r="N320" s="13"/>
       <c r="O320" s="2"/>
     </row>
-    <row r="321" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" s="4"/>
       <c r="B321" s="4"/>
       <c r="C321" s="11"/>
@@ -11904,7 +12339,7 @@
       <c r="N321" s="13"/>
       <c r="O321" s="2"/>
     </row>
-    <row r="322" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" s="4"/>
       <c r="B322" s="4"/>
       <c r="C322" s="11"/>
@@ -11921,7 +12356,7 @@
       <c r="N322" s="13"/>
       <c r="O322" s="2"/>
     </row>
-    <row r="323" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" s="4"/>
       <c r="B323" s="4"/>
       <c r="C323" s="11"/>
@@ -11938,7 +12373,7 @@
       <c r="N323" s="13"/>
       <c r="O323" s="2"/>
     </row>
-    <row r="324" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" s="4"/>
       <c r="B324" s="4"/>
       <c r="C324" s="11"/>
@@ -11955,7 +12390,7 @@
       <c r="N324" s="13"/>
       <c r="O324" s="2"/>
     </row>
-    <row r="325" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" s="4"/>
       <c r="B325" s="4"/>
       <c r="C325" s="11"/>
@@ -11972,7 +12407,7 @@
       <c r="N325" s="13"/>
       <c r="O325" s="2"/>
     </row>
-    <row r="326" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="11"/>
@@ -11989,7 +12424,7 @@
       <c r="N326" s="13"/>
       <c r="O326" s="2"/>
     </row>
-    <row r="327" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" s="4"/>
       <c r="B327" s="4"/>
       <c r="C327" s="11"/>
@@ -12006,7 +12441,7 @@
       <c r="N327" s="13"/>
       <c r="O327" s="2"/>
     </row>
-    <row r="328" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" s="4"/>
       <c r="B328" s="4"/>
       <c r="C328" s="11"/>
@@ -12023,7 +12458,7 @@
       <c r="N328" s="13"/>
       <c r="O328" s="2"/>
     </row>
-    <row r="329" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" s="4"/>
       <c r="B329" s="4"/>
       <c r="C329" s="11"/>
@@ -12040,7 +12475,7 @@
       <c r="N329" s="13"/>
       <c r="O329" s="2"/>
     </row>
-    <row r="330" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" s="4"/>
       <c r="B330" s="4"/>
       <c r="C330" s="11"/>
@@ -12057,7 +12492,7 @@
       <c r="N330" s="13"/>
       <c r="O330" s="2"/>
     </row>
-    <row r="331" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" s="4"/>
       <c r="B331" s="4"/>
       <c r="C331" s="11"/>
@@ -12074,7 +12509,7 @@
       <c r="N331" s="13"/>
       <c r="O331" s="2"/>
     </row>
-    <row r="332" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" s="4"/>
       <c r="B332" s="4"/>
       <c r="C332" s="11"/>
@@ -12091,7 +12526,7 @@
       <c r="N332" s="13"/>
       <c r="O332" s="2"/>
     </row>
-    <row r="333" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" s="4"/>
       <c r="B333" s="4"/>
       <c r="C333" s="11"/>
@@ -12108,7 +12543,7 @@
       <c r="N333" s="13"/>
       <c r="O333" s="2"/>
     </row>
-    <row r="334" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" s="4"/>
       <c r="B334" s="4"/>
       <c r="C334" s="11"/>
@@ -12125,7 +12560,7 @@
       <c r="N334" s="13"/>
       <c r="O334" s="2"/>
     </row>
-    <row r="335" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" s="4"/>
       <c r="B335" s="4"/>
       <c r="C335" s="11"/>
@@ -12142,7 +12577,7 @@
       <c r="N335" s="13"/>
       <c r="O335" s="2"/>
     </row>
-    <row r="336" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" s="4"/>
       <c r="B336" s="4"/>
       <c r="C336" s="11"/>
@@ -12159,7 +12594,7 @@
       <c r="N336" s="13"/>
       <c r="O336" s="2"/>
     </row>
-    <row r="337" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" s="4"/>
       <c r="B337" s="4"/>
       <c r="C337" s="11"/>
@@ -12176,7 +12611,7 @@
       <c r="N337" s="13"/>
       <c r="O337" s="2"/>
     </row>
-    <row r="338" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" s="4"/>
       <c r="B338" s="4"/>
       <c r="C338" s="11"/>
@@ -12193,7 +12628,7 @@
       <c r="N338" s="13"/>
       <c r="O338" s="2"/>
     </row>
-    <row r="339" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" s="4"/>
       <c r="B339" s="4"/>
       <c r="C339" s="11"/>
@@ -12210,7 +12645,7 @@
       <c r="N339" s="13"/>
       <c r="O339" s="2"/>
     </row>
-    <row r="340" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" s="4"/>
       <c r="B340" s="4"/>
       <c r="C340" s="11"/>
@@ -12227,7 +12662,7 @@
       <c r="N340" s="13"/>
       <c r="O340" s="2"/>
     </row>
-    <row r="341" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" s="4"/>
       <c r="B341" s="4"/>
       <c r="C341" s="11"/>
@@ -12244,7 +12679,7 @@
       <c r="N341" s="13"/>
       <c r="O341" s="2"/>
     </row>
-    <row r="342" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" s="4"/>
       <c r="B342" s="4"/>
       <c r="C342" s="11"/>
@@ -12261,7 +12696,7 @@
       <c r="N342" s="13"/>
       <c r="O342" s="2"/>
     </row>
-    <row r="343" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" s="4"/>
       <c r="B343" s="4"/>
       <c r="C343" s="11"/>
@@ -12278,7 +12713,7 @@
       <c r="N343" s="13"/>
       <c r="O343" s="2"/>
     </row>
-    <row r="344" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" s="4"/>
       <c r="B344" s="4"/>
       <c r="C344" s="11"/>
@@ -12295,7 +12730,7 @@
       <c r="N344" s="13"/>
       <c r="O344" s="2"/>
     </row>
-    <row r="345" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" s="4"/>
       <c r="B345" s="4"/>
       <c r="C345" s="11"/>
@@ -12312,7 +12747,7 @@
       <c r="N345" s="13"/>
       <c r="O345" s="2"/>
     </row>
-    <row r="346" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" s="4"/>
       <c r="B346" s="4"/>
       <c r="C346" s="11"/>
@@ -12329,7 +12764,7 @@
       <c r="N346" s="13"/>
       <c r="O346" s="2"/>
     </row>
-    <row r="347" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" s="4"/>
       <c r="B347" s="4"/>
       <c r="C347" s="11"/>
@@ -12346,7 +12781,7 @@
       <c r="N347" s="13"/>
       <c r="O347" s="2"/>
     </row>
-    <row r="348" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" s="4"/>
       <c r="B348" s="4"/>
       <c r="C348" s="11"/>
@@ -12363,7 +12798,7 @@
       <c r="N348" s="13"/>
       <c r="O348" s="2"/>
     </row>
-    <row r="349" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" s="4"/>
       <c r="B349" s="4"/>
       <c r="C349" s="11"/>
@@ -12380,7 +12815,7 @@
       <c r="N349" s="13"/>
       <c r="O349" s="2"/>
     </row>
-    <row r="350" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" s="4"/>
       <c r="B350" s="4"/>
       <c r="C350" s="11"/>
@@ -12397,7 +12832,7 @@
       <c r="N350" s="13"/>
       <c r="O350" s="2"/>
     </row>
-    <row r="351" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" s="4"/>
       <c r="B351" s="4"/>
       <c r="C351" s="11"/>
@@ -12414,7 +12849,7 @@
       <c r="N351" s="13"/>
       <c r="O351" s="2"/>
     </row>
-    <row r="352" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" s="4"/>
       <c r="B352" s="4"/>
       <c r="C352" s="11"/>
@@ -12431,7 +12866,7 @@
       <c r="N352" s="13"/>
       <c r="O352" s="2"/>
     </row>
-    <row r="353" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" s="4"/>
       <c r="B353" s="4"/>
       <c r="C353" s="11"/>
@@ -12448,7 +12883,7 @@
       <c r="N353" s="13"/>
       <c r="O353" s="2"/>
     </row>
-    <row r="354" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" s="4"/>
       <c r="B354" s="4"/>
       <c r="C354" s="11"/>
@@ -12465,7 +12900,7 @@
       <c r="N354" s="13"/>
       <c r="O354" s="2"/>
     </row>
-    <row r="355" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" s="4"/>
       <c r="B355" s="4"/>
       <c r="C355" s="11"/>
@@ -12482,7 +12917,7 @@
       <c r="N355" s="13"/>
       <c r="O355" s="2"/>
     </row>
-    <row r="356" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" s="4"/>
       <c r="B356" s="4"/>
       <c r="C356" s="11"/>
@@ -12499,7 +12934,7 @@
       <c r="N356" s="13"/>
       <c r="O356" s="2"/>
     </row>
-    <row r="357" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" s="4"/>
       <c r="B357" s="4"/>
       <c r="C357" s="11"/>
@@ -12516,7 +12951,7 @@
       <c r="N357" s="13"/>
       <c r="O357" s="2"/>
     </row>
-    <row r="358" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" s="4"/>
       <c r="B358" s="4"/>
       <c r="C358" s="11"/>
@@ -12533,7 +12968,7 @@
       <c r="N358" s="13"/>
       <c r="O358" s="2"/>
     </row>
-    <row r="359" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" s="4"/>
       <c r="B359" s="4"/>
       <c r="C359" s="11"/>
@@ -12550,7 +12985,7 @@
       <c r="N359" s="13"/>
       <c r="O359" s="2"/>
     </row>
-    <row r="360" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" s="4"/>
       <c r="B360" s="4"/>
       <c r="C360" s="11"/>
@@ -12567,7 +13002,7 @@
       <c r="N360" s="13"/>
       <c r="O360" s="2"/>
     </row>
-    <row r="361" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" s="4"/>
       <c r="B361" s="4"/>
       <c r="C361" s="11"/>
@@ -12584,7 +13019,7 @@
       <c r="N361" s="13"/>
       <c r="O361" s="2"/>
     </row>
-    <row r="362" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" s="4"/>
       <c r="B362" s="4"/>
       <c r="C362" s="11"/>
@@ -12601,7 +13036,7 @@
       <c r="N362" s="13"/>
       <c r="O362" s="2"/>
     </row>
-    <row r="363" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" s="4"/>
       <c r="B363" s="4"/>
       <c r="C363" s="11"/>
@@ -12618,7 +13053,7 @@
       <c r="N363" s="13"/>
       <c r="O363" s="2"/>
     </row>
-    <row r="364" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" s="4"/>
       <c r="B364" s="4"/>
       <c r="C364" s="11"/>
@@ -12635,7 +13070,7 @@
       <c r="N364" s="13"/>
       <c r="O364" s="2"/>
     </row>
-    <row r="365" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A365" s="4"/>
       <c r="B365" s="4"/>
       <c r="C365" s="11"/>
@@ -12652,7 +13087,7 @@
       <c r="N365" s="13"/>
       <c r="O365" s="2"/>
     </row>
-    <row r="366" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" s="4"/>
       <c r="B366" s="4"/>
       <c r="C366" s="11"/>
@@ -12669,7 +13104,7 @@
       <c r="N366" s="13"/>
       <c r="O366" s="2"/>
     </row>
-    <row r="367" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" s="4"/>
       <c r="B367" s="4"/>
       <c r="C367" s="11"/>
@@ -12686,7 +13121,7 @@
       <c r="N367" s="13"/>
       <c r="O367" s="2"/>
     </row>
-    <row r="368" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" s="4"/>
       <c r="B368" s="4"/>
       <c r="C368" s="11"/>
@@ -12703,7 +13138,7 @@
       <c r="N368" s="13"/>
       <c r="O368" s="2"/>
     </row>
-    <row r="369" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369" s="4"/>
       <c r="B369" s="4"/>
       <c r="C369" s="11"/>
@@ -12720,7 +13155,7 @@
       <c r="N369" s="13"/>
       <c r="O369" s="2"/>
     </row>
-    <row r="370" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370" s="4"/>
       <c r="B370" s="4"/>
       <c r="C370" s="11"/>
@@ -12737,7 +13172,7 @@
       <c r="N370" s="13"/>
       <c r="O370" s="2"/>
     </row>
-    <row r="371" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="371" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A371" s="4"/>
       <c r="B371" s="4"/>
       <c r="C371" s="11"/>
@@ -12754,7 +13189,7 @@
       <c r="N371" s="13"/>
       <c r="O371" s="2"/>
     </row>
-    <row r="372" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372" s="4"/>
       <c r="B372" s="4"/>
       <c r="C372" s="11"/>
@@ -12771,7 +13206,7 @@
       <c r="N372" s="13"/>
       <c r="O372" s="2"/>
     </row>
-    <row r="373" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373" s="4"/>
       <c r="B373" s="4"/>
       <c r="C373" s="11"/>
@@ -12788,7 +13223,7 @@
       <c r="N373" s="13"/>
       <c r="O373" s="2"/>
     </row>
-    <row r="374" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374" s="4"/>
       <c r="B374" s="4"/>
       <c r="C374" s="11"/>
@@ -12805,7 +13240,7 @@
       <c r="N374" s="13"/>
       <c r="O374" s="2"/>
     </row>
-    <row r="375" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375" s="4"/>
       <c r="B375" s="4"/>
       <c r="C375" s="11"/>
@@ -12822,7 +13257,7 @@
       <c r="N375" s="13"/>
       <c r="O375" s="2"/>
     </row>
-    <row r="376" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" s="4"/>
       <c r="B376" s="4"/>
       <c r="C376" s="11"/>
@@ -12839,7 +13274,7 @@
       <c r="N376" s="13"/>
       <c r="O376" s="2"/>
     </row>
-    <row r="377" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" s="4"/>
       <c r="B377" s="4"/>
       <c r="C377" s="11"/>
@@ -12856,7 +13291,7 @@
       <c r="N377" s="13"/>
       <c r="O377" s="2"/>
     </row>
-    <row r="378" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378" s="4"/>
       <c r="B378" s="4"/>
       <c r="C378" s="11"/>
@@ -12873,7 +13308,7 @@
       <c r="N378" s="13"/>
       <c r="O378" s="2"/>
     </row>
-    <row r="379" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379" s="4"/>
       <c r="B379" s="4"/>
       <c r="C379" s="11"/>
@@ -12890,7 +13325,7 @@
       <c r="N379" s="13"/>
       <c r="O379" s="2"/>
     </row>
-    <row r="380" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380" s="4"/>
       <c r="B380" s="4"/>
       <c r="C380" s="11"/>
@@ -12907,7 +13342,7 @@
       <c r="N380" s="13"/>
       <c r="O380" s="2"/>
     </row>
-    <row r="381" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" s="4"/>
       <c r="B381" s="4"/>
       <c r="C381" s="11"/>
@@ -12924,7 +13359,7 @@
       <c r="N381" s="13"/>
       <c r="O381" s="2"/>
     </row>
-    <row r="382" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382" s="4"/>
       <c r="B382" s="4"/>
       <c r="C382" s="11"/>
@@ -12941,7 +13376,7 @@
       <c r="N382" s="13"/>
       <c r="O382" s="2"/>
     </row>
-    <row r="383" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383" s="4"/>
       <c r="B383" s="4"/>
       <c r="C383" s="11"/>
@@ -12958,7 +13393,7 @@
       <c r="N383" s="13"/>
       <c r="O383" s="2"/>
     </row>
-    <row r="384" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384" s="4"/>
       <c r="B384" s="4"/>
       <c r="C384" s="11"/>
@@ -12975,7 +13410,7 @@
       <c r="N384" s="13"/>
       <c r="O384" s="2"/>
     </row>
-    <row r="385" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="385" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A385" s="4"/>
       <c r="B385" s="4"/>
       <c r="C385" s="11"/>
@@ -12992,7 +13427,7 @@
       <c r="N385" s="13"/>
       <c r="O385" s="2"/>
     </row>
-    <row r="386" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="386" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A386" s="4"/>
       <c r="B386" s="4"/>
       <c r="C386" s="11"/>
@@ -13009,7 +13444,7 @@
       <c r="N386" s="13"/>
       <c r="O386" s="2"/>
     </row>
-    <row r="387" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="387" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A387" s="4"/>
       <c r="B387" s="4"/>
       <c r="C387" s="11"/>
@@ -13026,7 +13461,7 @@
       <c r="N387" s="13"/>
       <c r="O387" s="2"/>
     </row>
-    <row r="388" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388" s="4"/>
       <c r="B388" s="4"/>
       <c r="C388" s="11"/>
@@ -13043,7 +13478,7 @@
       <c r="N388" s="13"/>
       <c r="O388" s="2"/>
     </row>
-    <row r="389" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="389" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A389" s="4"/>
       <c r="B389" s="4"/>
       <c r="C389" s="11"/>
@@ -13060,7 +13495,7 @@
       <c r="N389" s="13"/>
       <c r="O389" s="2"/>
     </row>
-    <row r="390" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="390" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A390" s="4"/>
       <c r="B390" s="4"/>
       <c r="C390" s="11"/>
@@ -13077,7 +13512,7 @@
       <c r="N390" s="13"/>
       <c r="O390" s="2"/>
     </row>
-    <row r="391" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="391" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A391" s="4"/>
       <c r="B391" s="4"/>
       <c r="C391" s="11"/>
@@ -13094,7 +13529,7 @@
       <c r="N391" s="13"/>
       <c r="O391" s="2"/>
     </row>
-    <row r="392" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A392" s="4"/>
       <c r="B392" s="4"/>
       <c r="C392" s="11"/>
@@ -13111,7 +13546,7 @@
       <c r="N392" s="13"/>
       <c r="O392" s="2"/>
     </row>
-    <row r="393" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A393" s="4"/>
       <c r="B393" s="4"/>
       <c r="C393" s="11"/>
@@ -13128,7 +13563,7 @@
       <c r="N393" s="13"/>
       <c r="O393" s="2"/>
     </row>
-    <row r="394" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A394" s="4"/>
       <c r="B394" s="4"/>
       <c r="C394" s="11"/>
@@ -13145,7 +13580,7 @@
       <c r="N394" s="13"/>
       <c r="O394" s="2"/>
     </row>
-    <row r="395" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A395" s="4"/>
       <c r="B395" s="4"/>
       <c r="C395" s="11"/>
@@ -13162,7 +13597,7 @@
       <c r="N395" s="13"/>
       <c r="O395" s="2"/>
     </row>
-    <row r="396" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396" s="4"/>
       <c r="B396" s="4"/>
       <c r="C396" s="11"/>
@@ -13179,7 +13614,7 @@
       <c r="N396" s="13"/>
       <c r="O396" s="2"/>
     </row>
-    <row r="397" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A397" s="4"/>
       <c r="B397" s="4"/>
       <c r="C397" s="11"/>
@@ -13196,7 +13631,7 @@
       <c r="N397" s="13"/>
       <c r="O397" s="2"/>
     </row>
-    <row r="398" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A398" s="4"/>
       <c r="B398" s="4"/>
       <c r="C398" s="11"/>
@@ -13213,7 +13648,7 @@
       <c r="N398" s="13"/>
       <c r="O398" s="2"/>
     </row>
-    <row r="399" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="399" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A399" s="4"/>
       <c r="B399" s="4"/>
       <c r="C399" s="11"/>
@@ -13230,7 +13665,7 @@
       <c r="N399" s="13"/>
       <c r="O399" s="2"/>
     </row>
-    <row r="400" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="400" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A400" s="4"/>
       <c r="B400" s="4"/>
       <c r="C400" s="11"/>
@@ -13247,7 +13682,7 @@
       <c r="N400" s="13"/>
       <c r="O400" s="2"/>
     </row>
-    <row r="401" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="401" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A401" s="4"/>
       <c r="B401" s="4"/>
       <c r="C401" s="11"/>
@@ -13264,7 +13699,7 @@
       <c r="N401" s="13"/>
       <c r="O401" s="2"/>
     </row>
-    <row r="402" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="402" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A402" s="4"/>
       <c r="B402" s="4"/>
       <c r="C402" s="11"/>
@@ -13281,7 +13716,7 @@
       <c r="N402" s="13"/>
       <c r="O402" s="2"/>
     </row>
-    <row r="403" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="403" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A403" s="4"/>
       <c r="B403" s="4"/>
       <c r="C403" s="11"/>
@@ -13298,7 +13733,7 @@
       <c r="N403" s="13"/>
       <c r="O403" s="2"/>
     </row>
-    <row r="404" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="404" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A404" s="4"/>
       <c r="B404" s="4"/>
       <c r="C404" s="11"/>
@@ -13315,7 +13750,7 @@
       <c r="N404" s="13"/>
       <c r="O404" s="2"/>
     </row>
-    <row r="405" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="405" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A405" s="4"/>
       <c r="B405" s="4"/>
       <c r="C405" s="11"/>
@@ -13332,7 +13767,7 @@
       <c r="N405" s="13"/>
       <c r="O405" s="2"/>
     </row>
-    <row r="406" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="406" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A406" s="4"/>
       <c r="B406" s="4"/>
       <c r="C406" s="11"/>
@@ -13349,7 +13784,7 @@
       <c r="N406" s="13"/>
       <c r="O406" s="2"/>
     </row>
-    <row r="407" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="407" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A407" s="4"/>
       <c r="B407" s="4"/>
       <c r="C407" s="11"/>
@@ -13366,7 +13801,7 @@
       <c r="N407" s="13"/>
       <c r="O407" s="2"/>
     </row>
-    <row r="408" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="408" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A408" s="4"/>
       <c r="B408" s="4"/>
       <c r="C408" s="11"/>
@@ -13383,7 +13818,7 @@
       <c r="N408" s="13"/>
       <c r="O408" s="2"/>
     </row>
-    <row r="409" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="409" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A409" s="4"/>
       <c r="B409" s="4"/>
       <c r="C409" s="11"/>
@@ -13400,7 +13835,7 @@
       <c r="N409" s="13"/>
       <c r="O409" s="2"/>
     </row>
-    <row r="410" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="410" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A410" s="4"/>
       <c r="B410" s="4"/>
       <c r="C410" s="11"/>
@@ -13417,7 +13852,7 @@
       <c r="N410" s="13"/>
       <c r="O410" s="2"/>
     </row>
-    <row r="411" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="411" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A411" s="4"/>
       <c r="B411" s="4"/>
       <c r="C411" s="11"/>
@@ -13434,7 +13869,7 @@
       <c r="N411" s="13"/>
       <c r="O411" s="2"/>
     </row>
-    <row r="412" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="412" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A412" s="4"/>
       <c r="B412" s="4"/>
       <c r="C412" s="11"/>
@@ -13451,7 +13886,7 @@
       <c r="N412" s="13"/>
       <c r="O412" s="2"/>
     </row>
-    <row r="413" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="413" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A413" s="4"/>
       <c r="B413" s="4"/>
       <c r="C413" s="11"/>
@@ -13468,7 +13903,7 @@
       <c r="N413" s="13"/>
       <c r="O413" s="2"/>
     </row>
-    <row r="414" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="414" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A414" s="4"/>
       <c r="B414" s="4"/>
       <c r="C414" s="11"/>
@@ -13485,7 +13920,7 @@
       <c r="N414" s="13"/>
       <c r="O414" s="2"/>
     </row>
-    <row r="415" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="415" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A415" s="4"/>
       <c r="B415" s="4"/>
       <c r="C415" s="11"/>
@@ -13502,7 +13937,7 @@
       <c r="N415" s="13"/>
       <c r="O415" s="2"/>
     </row>
-    <row r="416" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="416" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A416" s="4"/>
       <c r="B416" s="4"/>
       <c r="C416" s="11"/>
@@ -13519,7 +13954,7 @@
       <c r="N416" s="13"/>
       <c r="O416" s="2"/>
     </row>
-    <row r="417" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="417" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A417" s="4"/>
       <c r="B417" s="4"/>
       <c r="C417" s="11"/>
@@ -13536,7 +13971,7 @@
       <c r="N417" s="13"/>
       <c r="O417" s="2"/>
     </row>
-    <row r="418" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="418" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A418" s="4"/>
       <c r="B418" s="4"/>
       <c r="C418" s="11"/>
@@ -13553,7 +13988,7 @@
       <c r="N418" s="13"/>
       <c r="O418" s="2"/>
     </row>
-    <row r="419" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="419" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A419" s="4"/>
       <c r="B419" s="4"/>
       <c r="C419" s="11"/>
@@ -13570,7 +14005,7 @@
       <c r="N419" s="13"/>
       <c r="O419" s="2"/>
     </row>
-    <row r="420" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="420" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A420" s="4"/>
       <c r="B420" s="4"/>
       <c r="C420" s="11"/>
@@ -13587,7 +14022,7 @@
       <c r="N420" s="13"/>
       <c r="O420" s="2"/>
     </row>
-    <row r="421" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="421" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A421" s="4"/>
       <c r="B421" s="4"/>
       <c r="C421" s="11"/>
@@ -13604,7 +14039,7 @@
       <c r="N421" s="13"/>
       <c r="O421" s="2"/>
     </row>
-    <row r="422" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="422" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A422" s="4"/>
       <c r="B422" s="4"/>
       <c r="C422" s="11"/>
@@ -13621,7 +14056,7 @@
       <c r="N422" s="13"/>
       <c r="O422" s="2"/>
     </row>
-    <row r="423" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="423" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A423" s="4"/>
       <c r="B423" s="4"/>
       <c r="C423" s="11"/>
@@ -13638,7 +14073,7 @@
       <c r="N423" s="13"/>
       <c r="O423" s="2"/>
     </row>
-    <row r="424" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="424" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A424" s="4"/>
       <c r="B424" s="4"/>
       <c r="C424" s="11"/>
@@ -13655,7 +14090,7 @@
       <c r="N424" s="13"/>
       <c r="O424" s="2"/>
     </row>
-    <row r="425" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="425" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A425" s="4"/>
       <c r="B425" s="4"/>
       <c r="C425" s="11"/>
@@ -13672,7 +14107,7 @@
       <c r="N425" s="13"/>
       <c r="O425" s="2"/>
     </row>
-    <row r="426" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="426" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A426" s="4"/>
       <c r="B426" s="4"/>
       <c r="C426" s="11"/>
@@ -13689,7 +14124,7 @@
       <c r="N426" s="13"/>
       <c r="O426" s="2"/>
     </row>
-    <row r="427" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="427" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A427" s="4"/>
       <c r="B427" s="4"/>
       <c r="C427" s="11"/>
@@ -13706,7 +14141,7 @@
       <c r="N427" s="13"/>
       <c r="O427" s="2"/>
     </row>
-    <row r="428" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="428" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A428" s="4"/>
       <c r="B428" s="4"/>
       <c r="C428" s="11"/>
@@ -13723,7 +14158,7 @@
       <c r="N428" s="13"/>
       <c r="O428" s="2"/>
     </row>
-    <row r="429" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="429" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A429" s="4"/>
       <c r="B429" s="4"/>
       <c r="C429" s="11"/>
@@ -13740,7 +14175,7 @@
       <c r="N429" s="13"/>
       <c r="O429" s="2"/>
     </row>
-    <row r="430" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="430" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A430" s="4"/>
       <c r="B430" s="4"/>
       <c r="C430" s="11"/>
@@ -13757,7 +14192,7 @@
       <c r="N430" s="13"/>
       <c r="O430" s="2"/>
     </row>
-    <row r="431" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="431" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A431" s="4"/>
       <c r="B431" s="4"/>
       <c r="C431" s="11"/>
@@ -13774,7 +14209,7 @@
       <c r="N431" s="13"/>
       <c r="O431" s="2"/>
     </row>
-    <row r="432" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="432" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A432" s="4"/>
       <c r="B432" s="4"/>
       <c r="C432" s="11"/>
@@ -13791,7 +14226,7 @@
       <c r="N432" s="13"/>
       <c r="O432" s="2"/>
     </row>
-    <row r="433" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="433" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A433" s="4"/>
       <c r="B433" s="4"/>
       <c r="C433" s="11"/>
@@ -13808,7 +14243,7 @@
       <c r="N433" s="13"/>
       <c r="O433" s="2"/>
     </row>
-    <row r="434" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="434" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A434" s="4"/>
       <c r="B434" s="4"/>
       <c r="C434" s="11"/>
@@ -13825,7 +14260,7 @@
       <c r="N434" s="13"/>
       <c r="O434" s="2"/>
     </row>
-    <row r="435" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="435" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A435" s="4"/>
       <c r="B435" s="4"/>
       <c r="C435" s="11"/>
@@ -13842,7 +14277,7 @@
       <c r="N435" s="13"/>
       <c r="O435" s="2"/>
     </row>
-    <row r="436" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="436" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A436" s="4"/>
       <c r="B436" s="4"/>
       <c r="C436" s="11"/>
@@ -13859,7 +14294,7 @@
       <c r="N436" s="13"/>
       <c r="O436" s="2"/>
     </row>
-    <row r="437" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="437" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A437" s="4"/>
       <c r="B437" s="4"/>
       <c r="C437" s="11"/>
@@ -13876,7 +14311,7 @@
       <c r="N437" s="13"/>
       <c r="O437" s="2"/>
     </row>
-    <row r="438" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="438" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A438" s="4"/>
       <c r="B438" s="4"/>
       <c r="C438" s="11"/>
@@ -13893,7 +14328,7 @@
       <c r="N438" s="13"/>
       <c r="O438" s="2"/>
     </row>
-    <row r="439" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="439" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A439" s="4"/>
       <c r="B439" s="4"/>
       <c r="C439" s="11"/>
@@ -13910,7 +14345,7 @@
       <c r="N439" s="13"/>
       <c r="O439" s="2"/>
     </row>
-    <row r="440" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="440" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A440" s="4"/>
       <c r="B440" s="4"/>
       <c r="C440" s="11"/>
@@ -13927,7 +14362,7 @@
       <c r="N440" s="13"/>
       <c r="O440" s="2"/>
     </row>
-    <row r="441" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="441" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A441" s="4"/>
       <c r="B441" s="4"/>
       <c r="C441" s="11"/>
@@ -13944,7 +14379,7 @@
       <c r="N441" s="13"/>
       <c r="O441" s="2"/>
     </row>
-    <row r="442" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="442" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A442" s="4"/>
       <c r="B442" s="4"/>
       <c r="C442" s="11"/>
@@ -13961,7 +14396,7 @@
       <c r="N442" s="13"/>
       <c r="O442" s="2"/>
     </row>
-    <row r="443" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="443" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A443" s="4"/>
       <c r="B443" s="4"/>
       <c r="C443" s="11"/>
@@ -13978,7 +14413,7 @@
       <c r="N443" s="13"/>
       <c r="O443" s="2"/>
     </row>
-    <row r="444" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="444" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A444" s="4"/>
       <c r="B444" s="4"/>
       <c r="C444" s="11"/>
@@ -13995,7 +14430,7 @@
       <c r="N444" s="13"/>
       <c r="O444" s="2"/>
     </row>
-    <row r="445" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="445" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A445" s="4"/>
       <c r="B445" s="4"/>
       <c r="C445" s="11"/>
@@ -14012,7 +14447,7 @@
       <c r="N445" s="13"/>
       <c r="O445" s="2"/>
     </row>
-    <row r="446" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="446" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A446" s="4"/>
       <c r="B446" s="4"/>
       <c r="C446" s="11"/>
@@ -14029,7 +14464,7 @@
       <c r="N446" s="13"/>
       <c r="O446" s="2"/>
     </row>
-    <row r="447" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="447" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A447" s="4"/>
       <c r="B447" s="4"/>
       <c r="C447" s="11"/>
@@ -14046,7 +14481,7 @@
       <c r="N447" s="13"/>
       <c r="O447" s="2"/>
     </row>
-    <row r="448" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="448" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A448" s="4"/>
       <c r="B448" s="4"/>
       <c r="C448" s="11"/>
@@ -14063,7 +14498,7 @@
       <c r="N448" s="13"/>
       <c r="O448" s="2"/>
     </row>
-    <row r="449" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="449" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A449" s="4"/>
       <c r="B449" s="4"/>
       <c r="C449" s="11"/>
@@ -14080,7 +14515,7 @@
       <c r="N449" s="13"/>
       <c r="O449" s="2"/>
     </row>
-    <row r="450" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="450" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A450" s="4"/>
       <c r="B450" s="4"/>
       <c r="C450" s="11"/>
@@ -14097,7 +14532,7 @@
       <c r="N450" s="13"/>
       <c r="O450" s="2"/>
     </row>
-    <row r="451" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="451" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A451" s="4"/>
       <c r="B451" s="4"/>
       <c r="C451" s="11"/>
@@ -14114,7 +14549,7 @@
       <c r="N451" s="13"/>
       <c r="O451" s="2"/>
     </row>
-    <row r="452" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="452" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A452" s="4"/>
       <c r="B452" s="4"/>
       <c r="C452" s="11"/>
@@ -14131,7 +14566,7 @@
       <c r="N452" s="13"/>
       <c r="O452" s="2"/>
     </row>
-    <row r="453" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="453" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A453" s="4"/>
       <c r="B453" s="4"/>
       <c r="C453" s="11"/>
@@ -14148,7 +14583,7 @@
       <c r="N453" s="13"/>
       <c r="O453" s="2"/>
     </row>
-    <row r="454" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="454" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A454" s="4"/>
       <c r="B454" s="4"/>
       <c r="C454" s="11"/>
@@ -14165,7 +14600,7 @@
       <c r="N454" s="13"/>
       <c r="O454" s="2"/>
     </row>
-    <row r="455" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="455" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A455" s="4"/>
       <c r="B455" s="4"/>
       <c r="C455" s="11"/>
@@ -14182,7 +14617,7 @@
       <c r="N455" s="13"/>
       <c r="O455" s="2"/>
     </row>
-    <row r="456" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="456" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A456" s="4"/>
       <c r="B456" s="4"/>
       <c r="C456" s="11"/>
@@ -14199,7 +14634,7 @@
       <c r="N456" s="13"/>
       <c r="O456" s="2"/>
     </row>
-    <row r="457" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="457" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A457" s="4"/>
       <c r="B457" s="4"/>
       <c r="C457" s="11"/>
@@ -14216,7 +14651,7 @@
       <c r="N457" s="13"/>
       <c r="O457" s="2"/>
     </row>
-    <row r="458" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="458" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A458" s="4"/>
       <c r="B458" s="4"/>
       <c r="C458" s="11"/>
@@ -14233,7 +14668,7 @@
       <c r="N458" s="13"/>
       <c r="O458" s="2"/>
     </row>
-    <row r="459" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="459" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A459" s="4"/>
       <c r="B459" s="4"/>
       <c r="C459" s="11"/>
@@ -14250,7 +14685,7 @@
       <c r="N459" s="13"/>
       <c r="O459" s="2"/>
     </row>
-    <row r="460" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="460" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A460" s="4"/>
       <c r="B460" s="4"/>
       <c r="C460" s="11"/>
@@ -14267,7 +14702,7 @@
       <c r="N460" s="13"/>
       <c r="O460" s="2"/>
     </row>
-    <row r="461" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="461" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A461" s="4"/>
       <c r="B461" s="4"/>
       <c r="C461" s="11"/>
@@ -14284,7 +14719,7 @@
       <c r="N461" s="13"/>
       <c r="O461" s="2"/>
     </row>
-    <row r="462" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="462" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A462" s="4"/>
       <c r="B462" s="4"/>
       <c r="C462" s="11"/>
@@ -14301,7 +14736,7 @@
       <c r="N462" s="13"/>
       <c r="O462" s="2"/>
     </row>
-    <row r="463" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="463" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A463" s="4"/>
       <c r="B463" s="4"/>
       <c r="C463" s="11"/>
@@ -14318,7 +14753,7 @@
       <c r="N463" s="13"/>
       <c r="O463" s="2"/>
     </row>
-    <row r="464" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="464" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A464" s="4"/>
       <c r="B464" s="4"/>
       <c r="C464" s="11"/>
@@ -14335,7 +14770,7 @@
       <c r="N464" s="13"/>
       <c r="O464" s="2"/>
     </row>
-    <row r="465" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="465" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A465" s="4"/>
       <c r="B465" s="4"/>
       <c r="C465" s="11"/>
@@ -14352,7 +14787,7 @@
       <c r="N465" s="13"/>
       <c r="O465" s="2"/>
     </row>
-    <row r="466" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="466" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A466" s="4"/>
       <c r="B466" s="4"/>
       <c r="C466" s="11"/>
@@ -14369,7 +14804,7 @@
       <c r="N466" s="13"/>
       <c r="O466" s="2"/>
     </row>
-    <row r="467" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="467" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A467" s="4"/>
       <c r="B467" s="4"/>
       <c r="C467" s="11"/>
@@ -14386,7 +14821,7 @@
       <c r="N467" s="13"/>
       <c r="O467" s="2"/>
     </row>
-    <row r="468" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="468" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A468" s="4"/>
       <c r="B468" s="4"/>
       <c r="C468" s="11"/>
@@ -14403,7 +14838,7 @@
       <c r="N468" s="13"/>
       <c r="O468" s="2"/>
     </row>
-    <row r="469" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="469" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A469" s="4"/>
       <c r="B469" s="4"/>
       <c r="C469" s="11"/>
@@ -14420,7 +14855,7 @@
       <c r="N469" s="13"/>
       <c r="O469" s="2"/>
     </row>
-    <row r="470" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="470" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A470" s="4"/>
       <c r="B470" s="4"/>
       <c r="C470" s="11"/>
@@ -14437,7 +14872,7 @@
       <c r="N470" s="13"/>
       <c r="O470" s="2"/>
     </row>
-    <row r="471" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="471" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A471" s="4"/>
       <c r="B471" s="4"/>
       <c r="C471" s="11"/>
@@ -14454,7 +14889,7 @@
       <c r="N471" s="13"/>
       <c r="O471" s="2"/>
     </row>
-    <row r="472" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="472" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A472" s="4"/>
       <c r="B472" s="4"/>
       <c r="C472" s="11"/>
@@ -14471,7 +14906,7 @@
       <c r="N472" s="13"/>
       <c r="O472" s="2"/>
     </row>
-    <row r="473" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="473" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A473" s="4"/>
       <c r="B473" s="4"/>
       <c r="C473" s="11"/>
@@ -14488,7 +14923,7 @@
       <c r="N473" s="13"/>
       <c r="O473" s="2"/>
     </row>
-    <row r="474" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="474" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A474" s="4"/>
       <c r="B474" s="4"/>
       <c r="C474" s="11"/>
@@ -14505,7 +14940,7 @@
       <c r="N474" s="13"/>
       <c r="O474" s="2"/>
     </row>
-    <row r="475" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="475" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A475" s="4"/>
       <c r="B475" s="4"/>
       <c r="C475" s="11"/>
@@ -14522,7 +14957,7 @@
       <c r="N475" s="13"/>
       <c r="O475" s="2"/>
     </row>
-    <row r="476" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="476" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A476" s="4"/>
       <c r="B476" s="4"/>
       <c r="C476" s="11"/>
@@ -14539,7 +14974,7 @@
       <c r="N476" s="13"/>
       <c r="O476" s="2"/>
     </row>
-    <row r="477" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="477" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A477" s="4"/>
       <c r="B477" s="4"/>
       <c r="C477" s="11"/>
@@ -14556,7 +14991,7 @@
       <c r="N477" s="13"/>
       <c r="O477" s="2"/>
     </row>
-    <row r="478" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="478" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A478" s="4"/>
       <c r="B478" s="4"/>
       <c r="C478" s="11"/>
@@ -14573,7 +15008,7 @@
       <c r="N478" s="13"/>
       <c r="O478" s="2"/>
     </row>
-    <row r="479" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="479" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A479" s="4"/>
       <c r="B479" s="4"/>
       <c r="C479" s="11"/>
@@ -14590,7 +15025,7 @@
       <c r="N479" s="13"/>
       <c r="O479" s="2"/>
     </row>
-    <row r="480" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="480" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A480" s="4"/>
       <c r="B480" s="4"/>
       <c r="C480" s="11"/>
@@ -14607,7 +15042,7 @@
       <c r="N480" s="13"/>
       <c r="O480" s="2"/>
     </row>
-    <row r="481" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="481" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A481" s="4"/>
       <c r="B481" s="4"/>
       <c r="C481" s="11"/>
@@ -14624,7 +15059,7 @@
       <c r="N481" s="13"/>
       <c r="O481" s="2"/>
     </row>
-    <row r="482" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="482" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A482" s="4"/>
       <c r="B482" s="4"/>
       <c r="C482" s="11"/>
@@ -14641,7 +15076,7 @@
       <c r="N482" s="13"/>
       <c r="O482" s="2"/>
     </row>
-    <row r="483" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="483" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A483" s="4"/>
       <c r="B483" s="4"/>
       <c r="C483" s="11"/>
@@ -14658,7 +15093,7 @@
       <c r="N483" s="13"/>
       <c r="O483" s="2"/>
     </row>
-    <row r="484" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="484" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A484" s="4"/>
       <c r="B484" s="4"/>
       <c r="C484" s="11"/>
@@ -14675,7 +15110,7 @@
       <c r="N484" s="13"/>
       <c r="O484" s="2"/>
     </row>
-    <row r="485" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="485" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A485" s="4"/>
       <c r="B485" s="4"/>
       <c r="C485" s="11"/>
@@ -14692,7 +15127,7 @@
       <c r="N485" s="13"/>
       <c r="O485" s="2"/>
     </row>
-    <row r="486" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="486" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A486" s="4"/>
       <c r="B486" s="4"/>
       <c r="C486" s="11"/>
@@ -14709,7 +15144,7 @@
       <c r="N486" s="13"/>
       <c r="O486" s="2"/>
     </row>
-    <row r="487" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="487" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A487" s="4"/>
       <c r="B487" s="4"/>
       <c r="C487" s="11"/>
@@ -14726,7 +15161,7 @@
       <c r="N487" s="13"/>
       <c r="O487" s="2"/>
     </row>
-    <row r="488" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="488" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A488" s="4"/>
       <c r="B488" s="4"/>
       <c r="C488" s="11"/>
@@ -14743,7 +15178,7 @@
       <c r="N488" s="13"/>
       <c r="O488" s="2"/>
     </row>
-    <row r="489" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="489" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A489" s="4"/>
       <c r="B489" s="4"/>
       <c r="C489" s="11"/>
@@ -14760,7 +15195,7 @@
       <c r="N489" s="13"/>
       <c r="O489" s="2"/>
     </row>
-    <row r="490" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="490" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A490" s="4"/>
       <c r="B490" s="4"/>
       <c r="C490" s="11"/>
@@ -14777,7 +15212,7 @@
       <c r="N490" s="13"/>
       <c r="O490" s="2"/>
     </row>
-    <row r="491" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="491" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A491" s="4"/>
       <c r="B491" s="4"/>
       <c r="C491" s="11"/>
@@ -14794,7 +15229,7 @@
       <c r="N491" s="13"/>
       <c r="O491" s="2"/>
     </row>
-    <row r="492" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="492" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A492" s="4"/>
       <c r="B492" s="4"/>
       <c r="C492" s="11"/>
@@ -14811,7 +15246,7 @@
       <c r="N492" s="13"/>
       <c r="O492" s="2"/>
     </row>
-    <row r="493" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="493" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A493" s="4"/>
       <c r="B493" s="4"/>
       <c r="C493" s="11"/>
@@ -14828,7 +15263,7 @@
       <c r="N493" s="13"/>
       <c r="O493" s="2"/>
     </row>
-    <row r="494" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="494" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A494" s="4"/>
       <c r="B494" s="4"/>
       <c r="C494" s="11"/>
@@ -14845,7 +15280,7 @@
       <c r="N494" s="13"/>
       <c r="O494" s="2"/>
     </row>
-    <row r="495" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="495" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A495" s="4"/>
       <c r="B495" s="4"/>
       <c r="C495" s="11"/>
@@ -14862,7 +15297,7 @@
       <c r="N495" s="13"/>
       <c r="O495" s="2"/>
     </row>
-    <row r="496" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="496" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A496" s="4"/>
       <c r="B496" s="4"/>
       <c r="C496" s="11"/>
@@ -14879,7 +15314,7 @@
       <c r="N496" s="13"/>
       <c r="O496" s="2"/>
     </row>
-    <row r="497" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="497" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A497" s="4"/>
       <c r="B497" s="4"/>
       <c r="C497" s="11"/>
@@ -14896,7 +15331,7 @@
       <c r="N497" s="13"/>
       <c r="O497" s="2"/>
     </row>
-    <row r="498" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="498" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A498" s="4"/>
       <c r="B498" s="4"/>
       <c r="C498" s="11"/>
@@ -14913,7 +15348,7 @@
       <c r="N498" s="13"/>
       <c r="O498" s="2"/>
     </row>
-    <row r="499" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="499" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A499" s="4"/>
       <c r="B499" s="4"/>
       <c r="C499" s="11"/>
@@ -14930,7 +15365,7 @@
       <c r="N499" s="13"/>
       <c r="O499" s="2"/>
     </row>
-    <row r="500" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="500" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A500" s="4"/>
       <c r="B500" s="4"/>
       <c r="C500" s="11"/>
@@ -14947,7 +15382,7 @@
       <c r="N500" s="13"/>
       <c r="O500" s="2"/>
     </row>
-    <row r="501" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="501" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A501" s="4"/>
       <c r="B501" s="4"/>
       <c r="C501" s="11"/>
@@ -14964,7 +15399,7 @@
       <c r="N501" s="13"/>
       <c r="O501" s="2"/>
     </row>
-    <row r="502" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="502" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A502" s="4"/>
       <c r="B502" s="4"/>
       <c r="C502" s="11"/>
@@ -14981,7 +15416,7 @@
       <c r="N502" s="13"/>
       <c r="O502" s="2"/>
     </row>
-    <row r="503" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="503" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A503" s="4"/>
       <c r="B503" s="4"/>
       <c r="C503" s="11"/>
@@ -14998,7 +15433,7 @@
       <c r="N503" s="13"/>
       <c r="O503" s="2"/>
     </row>
-    <row r="504" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="504" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A504" s="4"/>
       <c r="B504" s="4"/>
       <c r="C504" s="11"/>
@@ -15015,7 +15450,7 @@
       <c r="N504" s="13"/>
       <c r="O504" s="2"/>
     </row>
-    <row r="505" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="505" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A505" s="4"/>
       <c r="B505" s="4"/>
       <c r="C505" s="11"/>
@@ -15032,7 +15467,7 @@
       <c r="N505" s="13"/>
       <c r="O505" s="2"/>
     </row>
-    <row r="506" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="506" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A506" s="4"/>
       <c r="B506" s="4"/>
       <c r="C506" s="11"/>
@@ -15049,7 +15484,7 @@
       <c r="N506" s="13"/>
       <c r="O506" s="2"/>
     </row>
-    <row r="507" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="507" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A507" s="4"/>
       <c r="B507" s="4"/>
       <c r="C507" s="11"/>
@@ -15066,7 +15501,7 @@
       <c r="N507" s="13"/>
       <c r="O507" s="2"/>
     </row>
-    <row r="508" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="508" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A508" s="4"/>
       <c r="B508" s="4"/>
       <c r="C508" s="11"/>
@@ -15083,7 +15518,7 @@
       <c r="N508" s="13"/>
       <c r="O508" s="2"/>
     </row>
-    <row r="509" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="509" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A509" s="4"/>
       <c r="B509" s="4"/>
       <c r="C509" s="11"/>
@@ -15100,7 +15535,7 @@
       <c r="N509" s="13"/>
       <c r="O509" s="2"/>
     </row>
-    <row r="510" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="510" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A510" s="4"/>
       <c r="B510" s="4"/>
       <c r="C510" s="11"/>
@@ -15117,7 +15552,7 @@
       <c r="N510" s="13"/>
       <c r="O510" s="2"/>
     </row>
-    <row r="511" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="511" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A511" s="4"/>
       <c r="B511" s="4"/>
       <c r="C511" s="11"/>
@@ -15134,7 +15569,7 @@
       <c r="N511" s="13"/>
       <c r="O511" s="2"/>
     </row>
-    <row r="512" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="512" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A512" s="4"/>
       <c r="B512" s="4"/>
       <c r="C512" s="11"/>
@@ -15151,7 +15586,7 @@
       <c r="N512" s="13"/>
       <c r="O512" s="2"/>
     </row>
-    <row r="513" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="513" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A513" s="4"/>
       <c r="B513" s="4"/>
       <c r="C513" s="11"/>
@@ -15168,7 +15603,7 @@
       <c r="N513" s="13"/>
       <c r="O513" s="2"/>
     </row>
-    <row r="514" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="514" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A514" s="4"/>
       <c r="B514" s="4"/>
       <c r="C514" s="11"/>
@@ -15185,7 +15620,7 @@
       <c r="N514" s="13"/>
       <c r="O514" s="2"/>
     </row>
-    <row r="515" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="515" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A515" s="4"/>
       <c r="B515" s="4"/>
       <c r="C515" s="11"/>
@@ -15202,7 +15637,7 @@
       <c r="N515" s="13"/>
       <c r="O515" s="2"/>
     </row>
-    <row r="516" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="516" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A516" s="4"/>
       <c r="B516" s="4"/>
       <c r="C516" s="11"/>
@@ -15219,7 +15654,7 @@
       <c r="N516" s="13"/>
       <c r="O516" s="2"/>
     </row>
-    <row r="517" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="517" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A517" s="4"/>
       <c r="B517" s="4"/>
       <c r="C517" s="11"/>
@@ -15236,7 +15671,7 @@
       <c r="N517" s="13"/>
       <c r="O517" s="2"/>
     </row>
-    <row r="518" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="518" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A518" s="4"/>
       <c r="B518" s="4"/>
       <c r="C518" s="11"/>
@@ -15253,7 +15688,7 @@
       <c r="N518" s="13"/>
       <c r="O518" s="2"/>
     </row>
-    <row r="519" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="519" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A519" s="4"/>
       <c r="B519" s="4"/>
       <c r="C519" s="11"/>
@@ -15270,7 +15705,7 @@
       <c r="N519" s="13"/>
       <c r="O519" s="2"/>
     </row>
-    <row r="520" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="520" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A520" s="4"/>
       <c r="B520" s="4"/>
       <c r="C520" s="11"/>
@@ -15287,7 +15722,7 @@
       <c r="N520" s="13"/>
       <c r="O520" s="2"/>
     </row>
-    <row r="521" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="521" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A521" s="4"/>
       <c r="B521" s="4"/>
       <c r="C521" s="11"/>
@@ -15304,7 +15739,7 @@
       <c r="N521" s="13"/>
       <c r="O521" s="2"/>
     </row>
-    <row r="522" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="522" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A522" s="4"/>
       <c r="B522" s="4"/>
       <c r="C522" s="11"/>
@@ -15321,7 +15756,7 @@
       <c r="N522" s="13"/>
       <c r="O522" s="2"/>
     </row>
-    <row r="523" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="523" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A523" s="4"/>
       <c r="B523" s="4"/>
       <c r="C523" s="11"/>
@@ -15338,7 +15773,7 @@
       <c r="N523" s="13"/>
       <c r="O523" s="2"/>
     </row>
-    <row r="524" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="524" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A524" s="4"/>
       <c r="B524" s="4"/>
       <c r="C524" s="11"/>
@@ -15355,7 +15790,7 @@
       <c r="N524" s="13"/>
       <c r="O524" s="2"/>
     </row>
-    <row r="525" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="525" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A525" s="4"/>
       <c r="B525" s="4"/>
       <c r="C525" s="11"/>
@@ -15372,7 +15807,7 @@
       <c r="N525" s="13"/>
       <c r="O525" s="2"/>
     </row>
-    <row r="526" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="526" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A526" s="4"/>
       <c r="B526" s="4"/>
       <c r="C526" s="11"/>
@@ -15389,7 +15824,7 @@
       <c r="N526" s="13"/>
       <c r="O526" s="2"/>
     </row>
-    <row r="527" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="527" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A527" s="4"/>
       <c r="B527" s="4"/>
       <c r="C527" s="11"/>
@@ -15406,7 +15841,7 @@
       <c r="N527" s="13"/>
       <c r="O527" s="2"/>
     </row>
-    <row r="528" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="528" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A528" s="4"/>
       <c r="B528" s="4"/>
       <c r="C528" s="11"/>
@@ -15423,7 +15858,7 @@
       <c r="N528" s="13"/>
       <c r="O528" s="2"/>
     </row>
-    <row r="529" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="529" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A529" s="4"/>
       <c r="B529" s="4"/>
       <c r="C529" s="11"/>
@@ -15440,7 +15875,7 @@
       <c r="N529" s="13"/>
       <c r="O529" s="2"/>
     </row>
-    <row r="530" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="530" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A530" s="4"/>
       <c r="B530" s="4"/>
       <c r="C530" s="11"/>
@@ -15457,7 +15892,7 @@
       <c r="N530" s="13"/>
       <c r="O530" s="2"/>
     </row>
-    <row r="531" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="531" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A531" s="4"/>
       <c r="B531" s="4"/>
       <c r="C531" s="11"/>
@@ -15474,7 +15909,7 @@
       <c r="N531" s="13"/>
       <c r="O531" s="2"/>
     </row>
-    <row r="532" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="532" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A532" s="4"/>
       <c r="B532" s="4"/>
       <c r="C532" s="11"/>
@@ -15491,7 +15926,7 @@
       <c r="N532" s="13"/>
       <c r="O532" s="2"/>
     </row>
-    <row r="533" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="533" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A533" s="4"/>
       <c r="B533" s="4"/>
       <c r="C533" s="11"/>
@@ -15508,7 +15943,7 @@
       <c r="N533" s="13"/>
       <c r="O533" s="2"/>
     </row>
-    <row r="534" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="534" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A534" s="4"/>
       <c r="B534" s="4"/>
       <c r="C534" s="11"/>
@@ -15525,7 +15960,7 @@
       <c r="N534" s="13"/>
       <c r="O534" s="2"/>
     </row>
-    <row r="535" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="535" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A535" s="4"/>
       <c r="B535" s="4"/>
       <c r="C535" s="11"/>
@@ -15542,7 +15977,7 @@
       <c r="N535" s="13"/>
       <c r="O535" s="2"/>
     </row>
-    <row r="536" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="536" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A536" s="4"/>
       <c r="B536" s="4"/>
       <c r="C536" s="11"/>
@@ -15559,7 +15994,7 @@
       <c r="N536" s="13"/>
       <c r="O536" s="2"/>
     </row>
-    <row r="537" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="537" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A537" s="4"/>
       <c r="B537" s="4"/>
       <c r="C537" s="11"/>
@@ -15576,7 +16011,7 @@
       <c r="N537" s="13"/>
       <c r="O537" s="2"/>
     </row>
-    <row r="538" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="538" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A538" s="4"/>
       <c r="B538" s="4"/>
       <c r="C538" s="11"/>
@@ -15593,7 +16028,7 @@
       <c r="N538" s="13"/>
       <c r="O538" s="2"/>
     </row>
-    <row r="539" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="539" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A539" s="4"/>
       <c r="B539" s="4"/>
       <c r="C539" s="11"/>
@@ -15610,7 +16045,7 @@
       <c r="N539" s="13"/>
       <c r="O539" s="2"/>
     </row>
-    <row r="540" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="540" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A540" s="4"/>
       <c r="B540" s="4"/>
       <c r="C540" s="11"/>
@@ -15627,7 +16062,7 @@
       <c r="N540" s="13"/>
       <c r="O540" s="2"/>
     </row>
-    <row r="541" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="541" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A541" s="4"/>
       <c r="B541" s="4"/>
       <c r="C541" s="11"/>
@@ -15644,7 +16079,7 @@
       <c r="N541" s="13"/>
       <c r="O541" s="2"/>
     </row>
-    <row r="542" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="542" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A542" s="4"/>
       <c r="B542" s="4"/>
       <c r="C542" s="11"/>
@@ -15661,7 +16096,7 @@
       <c r="N542" s="13"/>
       <c r="O542" s="2"/>
     </row>
-    <row r="543" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="543" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A543" s="4"/>
       <c r="B543" s="4"/>
       <c r="C543" s="11"/>
@@ -15678,7 +16113,7 @@
       <c r="N543" s="13"/>
       <c r="O543" s="2"/>
     </row>
-    <row r="544" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="544" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A544" s="4"/>
       <c r="B544" s="4"/>
       <c r="C544" s="11"/>
@@ -15695,7 +16130,7 @@
       <c r="N544" s="13"/>
       <c r="O544" s="2"/>
     </row>
-    <row r="545" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="545" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A545" s="4"/>
       <c r="B545" s="4"/>
       <c r="C545" s="11"/>
@@ -15712,7 +16147,7 @@
       <c r="N545" s="13"/>
       <c r="O545" s="2"/>
     </row>
-    <row r="546" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="546" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A546" s="4"/>
       <c r="B546" s="4"/>
       <c r="C546" s="11"/>
@@ -15729,7 +16164,7 @@
       <c r="N546" s="13"/>
       <c r="O546" s="2"/>
     </row>
-    <row r="547" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="547" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A547" s="4"/>
       <c r="B547" s="4"/>
       <c r="C547" s="11"/>
@@ -15746,7 +16181,7 @@
       <c r="N547" s="13"/>
       <c r="O547" s="2"/>
     </row>
-    <row r="548" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="548" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A548" s="4"/>
       <c r="B548" s="4"/>
       <c r="C548" s="11"/>
@@ -15763,7 +16198,7 @@
       <c r="N548" s="13"/>
       <c r="O548" s="2"/>
     </row>
-    <row r="549" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="549" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A549" s="4"/>
       <c r="B549" s="4"/>
       <c r="C549" s="11"/>
@@ -15780,7 +16215,7 @@
       <c r="N549" s="13"/>
       <c r="O549" s="2"/>
     </row>
-    <row r="550" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="550" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A550" s="4"/>
       <c r="B550" s="4"/>
       <c r="C550" s="11"/>
@@ -15797,7 +16232,7 @@
       <c r="N550" s="13"/>
       <c r="O550" s="2"/>
     </row>
-    <row r="551" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="551" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A551" s="4"/>
       <c r="B551" s="4"/>
       <c r="C551" s="11"/>
@@ -15814,7 +16249,7 @@
       <c r="N551" s="13"/>
       <c r="O551" s="2"/>
     </row>
-    <row r="552" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="552" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A552" s="4"/>
       <c r="B552" s="4"/>
       <c r="C552" s="11"/>
@@ -15831,7 +16266,7 @@
       <c r="N552" s="13"/>
       <c r="O552" s="2"/>
     </row>
-    <row r="553" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="553" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A553" s="4"/>
       <c r="B553" s="4"/>
       <c r="C553" s="11"/>
@@ -15848,7 +16283,7 @@
       <c r="N553" s="13"/>
       <c r="O553" s="2"/>
     </row>
-    <row r="554" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="554" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A554" s="4"/>
       <c r="B554" s="4"/>
       <c r="C554" s="11"/>
@@ -15865,7 +16300,7 @@
       <c r="N554" s="13"/>
       <c r="O554" s="2"/>
     </row>
-    <row r="555" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="555" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A555" s="4"/>
       <c r="B555" s="4"/>
       <c r="C555" s="11"/>
@@ -15882,7 +16317,7 @@
       <c r="N555" s="13"/>
       <c r="O555" s="2"/>
     </row>
-    <row r="556" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="556" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A556" s="4"/>
       <c r="B556" s="4"/>
       <c r="C556" s="11"/>
@@ -15899,7 +16334,7 @@
       <c r="N556" s="13"/>
       <c r="O556" s="2"/>
     </row>
-    <row r="557" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="557" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A557" s="4"/>
       <c r="B557" s="4"/>
       <c r="C557" s="11"/>
@@ -15916,7 +16351,7 @@
       <c r="N557" s="13"/>
       <c r="O557" s="2"/>
     </row>
-    <row r="558" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="558" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A558" s="4"/>
       <c r="B558" s="4"/>
       <c r="C558" s="11"/>
@@ -15933,7 +16368,7 @@
       <c r="N558" s="13"/>
       <c r="O558" s="2"/>
     </row>
-    <row r="559" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="559" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A559" s="4"/>
       <c r="B559" s="4"/>
       <c r="C559" s="11"/>
@@ -15950,7 +16385,7 @@
       <c r="N559" s="13"/>
       <c r="O559" s="2"/>
     </row>
-    <row r="560" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="560" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A560" s="4"/>
       <c r="B560" s="4"/>
       <c r="C560" s="11"/>
@@ -15967,7 +16402,7 @@
       <c r="N560" s="13"/>
       <c r="O560" s="2"/>
     </row>
-    <row r="561" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="561" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A561" s="4"/>
       <c r="B561" s="4"/>
       <c r="C561" s="11"/>
@@ -15984,7 +16419,7 @@
       <c r="N561" s="13"/>
       <c r="O561" s="2"/>
     </row>
-    <row r="562" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="562" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A562" s="4"/>
       <c r="B562" s="4"/>
       <c r="C562" s="11"/>
@@ -16001,7 +16436,7 @@
       <c r="N562" s="13"/>
       <c r="O562" s="2"/>
     </row>
-    <row r="563" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="563" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A563" s="4"/>
       <c r="B563" s="4"/>
       <c r="C563" s="11"/>
@@ -16018,7 +16453,7 @@
       <c r="N563" s="13"/>
       <c r="O563" s="2"/>
     </row>
-    <row r="564" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="564" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A564" s="4"/>
       <c r="B564" s="4"/>
       <c r="C564" s="11"/>
@@ -16035,7 +16470,7 @@
       <c r="N564" s="13"/>
       <c r="O564" s="2"/>
     </row>
-    <row r="565" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="565" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A565" s="4"/>
       <c r="B565" s="4"/>
       <c r="C565" s="11"/>
@@ -16052,7 +16487,7 @@
       <c r="N565" s="13"/>
       <c r="O565" s="2"/>
     </row>
-    <row r="566" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="566" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A566" s="4"/>
       <c r="B566" s="4"/>
       <c r="C566" s="11"/>
@@ -16069,7 +16504,7 @@
       <c r="N566" s="13"/>
       <c r="O566" s="2"/>
     </row>
-    <row r="567" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="567" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A567" s="4"/>
       <c r="B567" s="4"/>
       <c r="C567" s="11"/>
@@ -16086,7 +16521,7 @@
       <c r="N567" s="13"/>
       <c r="O567" s="2"/>
     </row>
-    <row r="568" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="568" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A568" s="4"/>
       <c r="B568" s="4"/>
       <c r="C568" s="11"/>
@@ -16103,7 +16538,7 @@
       <c r="N568" s="13"/>
       <c r="O568" s="2"/>
     </row>
-    <row r="569" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="569" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A569" s="4"/>
       <c r="B569" s="4"/>
       <c r="C569" s="11"/>
@@ -16120,7 +16555,7 @@
       <c r="N569" s="13"/>
       <c r="O569" s="2"/>
     </row>
-    <row r="570" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="570" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A570" s="4"/>
       <c r="B570" s="4"/>
       <c r="C570" s="11"/>
@@ -16137,7 +16572,7 @@
       <c r="N570" s="13"/>
       <c r="O570" s="2"/>
     </row>
-    <row r="571" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="571" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A571" s="4"/>
       <c r="B571" s="4"/>
       <c r="C571" s="11"/>
@@ -16154,7 +16589,7 @@
       <c r="N571" s="13"/>
       <c r="O571" s="2"/>
     </row>
-    <row r="572" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="572" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A572" s="4"/>
       <c r="B572" s="4"/>
       <c r="C572" s="11"/>
@@ -16171,7 +16606,7 @@
       <c r="N572" s="13"/>
       <c r="O572" s="2"/>
     </row>
-    <row r="573" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="573" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A573" s="4"/>
       <c r="B573" s="4"/>
       <c r="C573" s="11"/>
@@ -16188,7 +16623,7 @@
       <c r="N573" s="13"/>
       <c r="O573" s="2"/>
     </row>
-    <row r="574" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="574" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A574" s="4"/>
       <c r="B574" s="4"/>
       <c r="C574" s="11"/>
@@ -16205,7 +16640,7 @@
       <c r="N574" s="13"/>
       <c r="O574" s="2"/>
     </row>
-    <row r="575" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="575" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A575" s="4"/>
       <c r="B575" s="4"/>
       <c r="C575" s="11"/>
@@ -16222,7 +16657,7 @@
       <c r="N575" s="13"/>
       <c r="O575" s="2"/>
     </row>
-    <row r="576" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="576" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A576" s="4"/>
       <c r="B576" s="4"/>
       <c r="C576" s="11"/>
@@ -16239,7 +16674,7 @@
       <c r="N576" s="13"/>
       <c r="O576" s="2"/>
     </row>
-    <row r="577" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="577" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A577" s="4"/>
       <c r="B577" s="4"/>
       <c r="C577" s="11"/>
@@ -16256,7 +16691,7 @@
       <c r="N577" s="13"/>
       <c r="O577" s="2"/>
     </row>
-    <row r="578" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="578" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A578" s="4"/>
       <c r="B578" s="4"/>
       <c r="C578" s="11"/>
@@ -16273,7 +16708,7 @@
       <c r="N578" s="13"/>
       <c r="O578" s="2"/>
     </row>
-    <row r="579" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="579" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A579" s="4"/>
       <c r="B579" s="4"/>
       <c r="C579" s="11"/>
@@ -16290,7 +16725,7 @@
       <c r="N579" s="13"/>
       <c r="O579" s="2"/>
     </row>
-    <row r="580" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="580" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A580" s="4"/>
       <c r="B580" s="4"/>
       <c r="C580" s="11"/>
@@ -16307,7 +16742,7 @@
       <c r="N580" s="13"/>
       <c r="O580" s="2"/>
     </row>
-    <row r="581" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="581" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A581" s="4"/>
       <c r="B581" s="4"/>
       <c r="C581" s="11"/>
@@ -16324,7 +16759,7 @@
       <c r="N581" s="13"/>
       <c r="O581" s="2"/>
     </row>
-    <row r="582" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="582" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A582" s="4"/>
       <c r="B582" s="4"/>
       <c r="C582" s="11"/>
@@ -16341,7 +16776,7 @@
       <c r="N582" s="13"/>
       <c r="O582" s="2"/>
     </row>
-    <row r="583" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="583" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A583" s="4"/>
       <c r="B583" s="4"/>
       <c r="C583" s="11"/>
@@ -16358,7 +16793,7 @@
       <c r="N583" s="13"/>
       <c r="O583" s="2"/>
     </row>
-    <row r="584" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="584" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A584" s="4"/>
       <c r="B584" s="4"/>
       <c r="C584" s="11"/>
@@ -16375,7 +16810,7 @@
       <c r="N584" s="13"/>
       <c r="O584" s="2"/>
     </row>
-    <row r="585" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="585" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A585" s="4"/>
       <c r="B585" s="4"/>
       <c r="C585" s="11"/>
@@ -16392,7 +16827,7 @@
       <c r="N585" s="13"/>
       <c r="O585" s="2"/>
     </row>
-    <row r="586" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="586" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A586" s="4"/>
       <c r="B586" s="4"/>
       <c r="C586" s="11"/>
@@ -16409,7 +16844,7 @@
       <c r="N586" s="13"/>
       <c r="O586" s="2"/>
     </row>
-    <row r="587" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="587" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A587" s="4"/>
       <c r="B587" s="4"/>
       <c r="C587" s="11"/>
@@ -16426,7 +16861,7 @@
       <c r="N587" s="13"/>
       <c r="O587" s="2"/>
     </row>
-    <row r="588" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="588" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A588" s="4"/>
       <c r="B588" s="4"/>
       <c r="C588" s="11"/>
@@ -16443,7 +16878,7 @@
       <c r="N588" s="13"/>
       <c r="O588" s="2"/>
     </row>
-    <row r="589" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="589" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A589" s="4"/>
       <c r="B589" s="4"/>
       <c r="C589" s="11"/>
@@ -16460,7 +16895,7 @@
       <c r="N589" s="13"/>
       <c r="O589" s="2"/>
     </row>
-    <row r="590" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="590" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A590" s="4"/>
       <c r="B590" s="4"/>
       <c r="C590" s="11"/>
@@ -16477,7 +16912,7 @@
       <c r="N590" s="13"/>
       <c r="O590" s="2"/>
     </row>
-    <row r="591" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="591" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A591" s="4"/>
       <c r="B591" s="4"/>
       <c r="C591" s="11"/>
@@ -16494,7 +16929,7 @@
       <c r="N591" s="13"/>
       <c r="O591" s="2"/>
     </row>
-    <row r="592" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="592" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A592" s="4"/>
       <c r="B592" s="4"/>
       <c r="C592" s="11"/>
@@ -16511,7 +16946,7 @@
       <c r="N592" s="13"/>
       <c r="O592" s="2"/>
     </row>
-    <row r="593" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="593" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A593" s="4"/>
       <c r="B593" s="4"/>
       <c r="C593" s="11"/>
@@ -16528,7 +16963,7 @@
       <c r="N593" s="13"/>
       <c r="O593" s="2"/>
     </row>
-    <row r="594" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="594" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A594" s="4"/>
       <c r="B594" s="4"/>
       <c r="C594" s="11"/>
@@ -16545,7 +16980,7 @@
       <c r="N594" s="13"/>
       <c r="O594" s="2"/>
     </row>
-    <row r="595" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="595" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A595" s="4"/>
       <c r="B595" s="4"/>
       <c r="C595" s="11"/>
@@ -16562,7 +16997,7 @@
       <c r="N595" s="13"/>
       <c r="O595" s="2"/>
     </row>
-    <row r="596" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="596" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A596" s="4"/>
       <c r="B596" s="4"/>
       <c r="C596" s="11"/>
@@ -16579,7 +17014,7 @@
       <c r="N596" s="13"/>
       <c r="O596" s="2"/>
     </row>
-    <row r="597" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="597" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A597" s="4"/>
       <c r="B597" s="4"/>
       <c r="C597" s="11"/>
@@ -16596,7 +17031,7 @@
       <c r="N597" s="13"/>
       <c r="O597" s="2"/>
     </row>
-    <row r="598" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="598" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A598" s="4"/>
       <c r="B598" s="4"/>
       <c r="C598" s="11"/>
@@ -16613,7 +17048,7 @@
       <c r="N598" s="13"/>
       <c r="O598" s="2"/>
     </row>
-    <row r="599" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="599" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A599" s="4"/>
       <c r="B599" s="4"/>
       <c r="C599" s="11"/>
@@ -16630,7 +17065,7 @@
       <c r="N599" s="13"/>
       <c r="O599" s="2"/>
     </row>
-    <row r="600" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="600" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A600" s="4"/>
       <c r="B600" s="4"/>
       <c r="C600" s="11"/>
@@ -16647,7 +17082,7 @@
       <c r="N600" s="13"/>
       <c r="O600" s="2"/>
     </row>
-    <row r="601" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="601" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A601" s="4"/>
       <c r="B601" s="4"/>
       <c r="C601" s="11"/>
@@ -16664,7 +17099,7 @@
       <c r="N601" s="13"/>
       <c r="O601" s="2"/>
     </row>
-    <row r="602" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="602" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A602" s="4"/>
       <c r="B602" s="4"/>
       <c r="C602" s="11"/>
@@ -16681,7 +17116,7 @@
       <c r="N602" s="13"/>
       <c r="O602" s="2"/>
     </row>
-    <row r="603" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="603" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A603" s="4"/>
       <c r="B603" s="4"/>
       <c r="C603" s="11"/>
@@ -16698,7 +17133,7 @@
       <c r="N603" s="13"/>
       <c r="O603" s="2"/>
     </row>
-    <row r="604" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="604" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A604" s="4"/>
       <c r="B604" s="4"/>
       <c r="C604" s="11"/>
@@ -16715,7 +17150,7 @@
       <c r="N604" s="13"/>
       <c r="O604" s="2"/>
     </row>
-    <row r="605" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="605" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A605" s="4"/>
       <c r="B605" s="4"/>
       <c r="C605" s="11"/>
@@ -16732,7 +17167,7 @@
       <c r="N605" s="13"/>
       <c r="O605" s="2"/>
     </row>
-    <row r="606" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="606" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A606" s="4"/>
       <c r="B606" s="4"/>
       <c r="C606" s="11"/>
@@ -16749,7 +17184,7 @@
       <c r="N606" s="13"/>
       <c r="O606" s="2"/>
     </row>
-    <row r="607" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="607" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A607" s="4"/>
       <c r="B607" s="4"/>
       <c r="C607" s="11"/>
@@ -16766,7 +17201,7 @@
       <c r="N607" s="13"/>
       <c r="O607" s="2"/>
     </row>
-    <row r="608" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="608" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A608" s="4"/>
       <c r="B608" s="4"/>
       <c r="C608" s="11"/>
@@ -16783,7 +17218,7 @@
       <c r="N608" s="13"/>
       <c r="O608" s="2"/>
     </row>
-    <row r="609" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="609" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A609" s="4"/>
       <c r="B609" s="4"/>
       <c r="C609" s="11"/>
@@ -16800,7 +17235,7 @@
       <c r="N609" s="13"/>
       <c r="O609" s="2"/>
     </row>
-    <row r="610" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="610" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A610" s="4"/>
       <c r="B610" s="4"/>
       <c r="C610" s="11"/>
@@ -16817,7 +17252,7 @@
       <c r="N610" s="13"/>
       <c r="O610" s="2"/>
     </row>
-    <row r="611" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="611" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A611" s="4"/>
       <c r="B611" s="4"/>
       <c r="C611" s="11"/>
@@ -16834,7 +17269,7 @@
       <c r="N611" s="13"/>
       <c r="O611" s="2"/>
     </row>
-    <row r="612" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="612" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A612" s="4"/>
       <c r="B612" s="4"/>
       <c r="C612" s="11"/>
@@ -16851,7 +17286,7 @@
       <c r="N612" s="13"/>
       <c r="O612" s="2"/>
     </row>
-    <row r="613" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="613" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A613" s="4"/>
       <c r="B613" s="4"/>
       <c r="C613" s="11"/>
@@ -16868,7 +17303,7 @@
       <c r="N613" s="13"/>
       <c r="O613" s="2"/>
     </row>
-    <row r="614" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="614" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A614" s="4"/>
       <c r="B614" s="4"/>
       <c r="C614" s="11"/>
@@ -16885,7 +17320,7 @@
       <c r="N614" s="13"/>
       <c r="O614" s="2"/>
     </row>
-    <row r="615" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="615" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A615" s="4"/>
       <c r="B615" s="4"/>
       <c r="C615" s="11"/>
@@ -16902,7 +17337,7 @@
       <c r="N615" s="13"/>
       <c r="O615" s="2"/>
     </row>
-    <row r="616" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="616" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A616" s="4"/>
       <c r="B616" s="4"/>
       <c r="C616" s="11"/>
@@ -16919,7 +17354,7 @@
       <c r="N616" s="13"/>
       <c r="O616" s="2"/>
     </row>
-    <row r="617" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="617" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A617" s="4"/>
       <c r="B617" s="4"/>
       <c r="C617" s="11"/>
@@ -16936,7 +17371,7 @@
       <c r="N617" s="13"/>
       <c r="O617" s="2"/>
     </row>
-    <row r="618" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="618" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A618" s="4"/>
       <c r="B618" s="4"/>
       <c r="C618" s="11"/>
@@ -16953,7 +17388,7 @@
       <c r="N618" s="13"/>
       <c r="O618" s="2"/>
     </row>
-    <row r="619" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="619" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A619" s="4"/>
       <c r="B619" s="4"/>
       <c r="C619" s="11"/>
@@ -16970,7 +17405,7 @@
       <c r="N619" s="13"/>
       <c r="O619" s="2"/>
     </row>
-    <row r="620" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="620" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A620" s="4"/>
       <c r="B620" s="4"/>
       <c r="C620" s="11"/>
@@ -16987,7 +17422,7 @@
       <c r="N620" s="13"/>
       <c r="O620" s="2"/>
     </row>
-    <row r="621" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="621" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A621" s="4"/>
       <c r="B621" s="4"/>
       <c r="C621" s="11"/>
@@ -17004,7 +17439,7 @@
       <c r="N621" s="13"/>
       <c r="O621" s="2"/>
     </row>
-    <row r="622" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="622" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A622" s="4"/>
       <c r="B622" s="4"/>
       <c r="C622" s="11"/>
@@ -17021,7 +17456,7 @@
       <c r="N622" s="13"/>
       <c r="O622" s="2"/>
     </row>
-    <row r="623" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="623" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A623" s="4"/>
       <c r="B623" s="4"/>
       <c r="C623" s="11"/>
@@ -17038,7 +17473,7 @@
       <c r="N623" s="13"/>
       <c r="O623" s="2"/>
     </row>
-    <row r="624" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="624" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A624" s="4"/>
       <c r="B624" s="4"/>
       <c r="C624" s="11"/>
@@ -17055,7 +17490,7 @@
       <c r="N624" s="13"/>
       <c r="O624" s="2"/>
     </row>
-    <row r="625" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="625" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A625" s="4"/>
       <c r="B625" s="4"/>
       <c r="C625" s="11"/>
@@ -17072,7 +17507,7 @@
       <c r="N625" s="13"/>
       <c r="O625" s="2"/>
     </row>
-    <row r="626" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="626" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A626" s="4"/>
       <c r="B626" s="4"/>
       <c r="C626" s="11"/>
@@ -17089,7 +17524,7 @@
       <c r="N626" s="13"/>
       <c r="O626" s="2"/>
     </row>
-    <row r="627" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="627" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A627" s="4"/>
       <c r="B627" s="4"/>
       <c r="C627" s="11"/>
@@ -17106,7 +17541,7 @@
       <c r="N627" s="13"/>
       <c r="O627" s="2"/>
     </row>
-    <row r="628" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="628" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A628" s="4"/>
       <c r="B628" s="4"/>
       <c r="C628" s="11"/>
@@ -17123,7 +17558,7 @@
       <c r="N628" s="13"/>
       <c r="O628" s="2"/>
     </row>
-    <row r="629" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="629" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A629" s="4"/>
       <c r="B629" s="4"/>
       <c r="C629" s="11"/>
@@ -17140,7 +17575,7 @@
       <c r="N629" s="13"/>
       <c r="O629" s="2"/>
     </row>
-    <row r="630" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="630" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A630" s="4"/>
       <c r="B630" s="4"/>
       <c r="C630" s="11"/>
@@ -17157,7 +17592,7 @@
       <c r="N630" s="13"/>
       <c r="O630" s="2"/>
     </row>
-    <row r="631" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="631" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A631" s="4"/>
       <c r="B631" s="4"/>
       <c r="C631" s="11"/>
@@ -17174,7 +17609,7 @@
       <c r="N631" s="13"/>
       <c r="O631" s="2"/>
     </row>
-    <row r="632" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="632" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A632" s="4"/>
       <c r="B632" s="4"/>
       <c r="C632" s="11"/>
@@ -17191,7 +17626,7 @@
       <c r="N632" s="13"/>
       <c r="O632" s="2"/>
     </row>
-    <row r="633" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="633" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A633" s="4"/>
       <c r="B633" s="4"/>
       <c r="C633" s="11"/>
@@ -17208,7 +17643,7 @@
       <c r="N633" s="13"/>
       <c r="O633" s="2"/>
     </row>
-    <row r="634" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="634" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A634" s="4"/>
       <c r="B634" s="4"/>
       <c r="C634" s="11"/>
@@ -17225,7 +17660,7 @@
       <c r="N634" s="13"/>
       <c r="O634" s="2"/>
     </row>
-    <row r="635" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="635" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A635" s="4"/>
       <c r="B635" s="4"/>
       <c r="C635" s="11"/>
@@ -17242,7 +17677,7 @@
       <c r="N635" s="13"/>
       <c r="O635" s="2"/>
     </row>
-    <row r="636" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="636" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A636" s="4"/>
       <c r="B636" s="4"/>
       <c r="C636" s="11"/>
@@ -17259,7 +17694,7 @@
       <c r="N636" s="13"/>
       <c r="O636" s="2"/>
     </row>
-    <row r="637" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="637" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A637" s="4"/>
       <c r="B637" s="4"/>
       <c r="C637" s="11"/>
@@ -17276,7 +17711,7 @@
       <c r="N637" s="13"/>
       <c r="O637" s="2"/>
     </row>
-    <row r="638" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="638" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A638" s="4"/>
       <c r="B638" s="4"/>
       <c r="C638" s="11"/>
@@ -17293,7 +17728,7 @@
       <c r="N638" s="13"/>
       <c r="O638" s="2"/>
     </row>
-    <row r="639" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="639" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A639" s="4"/>
       <c r="B639" s="4"/>
       <c r="C639" s="11"/>
@@ -17310,7 +17745,7 @@
       <c r="N639" s="13"/>
       <c r="O639" s="2"/>
     </row>
-    <row r="640" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="640" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A640" s="4"/>
       <c r="B640" s="4"/>
       <c r="C640" s="11"/>
@@ -17327,7 +17762,7 @@
       <c r="N640" s="13"/>
       <c r="O640" s="2"/>
     </row>
-    <row r="641" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="641" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A641" s="4"/>
       <c r="B641" s="4"/>
       <c r="C641" s="11"/>
@@ -17344,7 +17779,7 @@
       <c r="N641" s="13"/>
       <c r="O641" s="2"/>
     </row>
-    <row r="642" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="642" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A642" s="4"/>
       <c r="B642" s="4"/>
       <c r="C642" s="11"/>
@@ -17361,7 +17796,7 @@
       <c r="N642" s="13"/>
       <c r="O642" s="2"/>
     </row>
-    <row r="643" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="643" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A643" s="4"/>
       <c r="B643" s="4"/>
       <c r="C643" s="11"/>
@@ -17378,7 +17813,7 @@
       <c r="N643" s="13"/>
       <c r="O643" s="2"/>
     </row>
-    <row r="644" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="644" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A644" s="4"/>
       <c r="B644" s="4"/>
       <c r="C644" s="11"/>
@@ -17395,7 +17830,7 @@
       <c r="N644" s="13"/>
       <c r="O644" s="2"/>
     </row>
-    <row r="645" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="645" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A645" s="4"/>
       <c r="B645" s="4"/>
       <c r="C645" s="11"/>
@@ -17412,7 +17847,7 @@
       <c r="N645" s="13"/>
       <c r="O645" s="2"/>
     </row>
-    <row r="646" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="646" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A646" s="4"/>
       <c r="B646" s="4"/>
       <c r="C646" s="11"/>
@@ -17429,7 +17864,7 @@
       <c r="N646" s="13"/>
       <c r="O646" s="2"/>
     </row>
-    <row r="647" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="647" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A647" s="4"/>
       <c r="B647" s="4"/>
       <c r="C647" s="11"/>
@@ -17446,7 +17881,7 @@
       <c r="N647" s="13"/>
       <c r="O647" s="2"/>
     </row>
-    <row r="648" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="648" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A648" s="4"/>
       <c r="B648" s="4"/>
       <c r="C648" s="11"/>
@@ -17463,7 +17898,7 @@
       <c r="N648" s="13"/>
       <c r="O648" s="2"/>
     </row>
-    <row r="649" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="649" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A649" s="4"/>
       <c r="B649" s="4"/>
       <c r="C649" s="11"/>
@@ -17480,7 +17915,7 @@
       <c r="N649" s="13"/>
       <c r="O649" s="2"/>
     </row>
-    <row r="650" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="650" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A650" s="4"/>
       <c r="B650" s="4"/>
       <c r="C650" s="11"/>
@@ -17497,7 +17932,7 @@
       <c r="N650" s="13"/>
       <c r="O650" s="2"/>
     </row>
-    <row r="651" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="651" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A651" s="4"/>
       <c r="B651" s="4"/>
       <c r="C651" s="11"/>
@@ -17514,7 +17949,7 @@
       <c r="N651" s="13"/>
       <c r="O651" s="2"/>
     </row>
-    <row r="652" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="652" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A652" s="4"/>
       <c r="B652" s="4"/>
       <c r="C652" s="11"/>
@@ -17531,7 +17966,7 @@
       <c r="N652" s="13"/>
       <c r="O652" s="2"/>
     </row>
-    <row r="653" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="19" r="653" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A653" s="4"/>
       <c r="B653" s="4"/>
       <c r="C653" s="11"/>
@@ -17548,360 +17983,360 @@
       <c r="N653" s="13"/>
       <c r="O653" s="2"/>
     </row>
-    <row r="654" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1001" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1002" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1003" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1004" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1005" ht="19" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="654" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="655" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="656" spans="1:15" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="657" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="658" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="659" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="660" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="661" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="662" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="663" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="664" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="665" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="666" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="667" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="668" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="669" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="670" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="671" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="672" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="673" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="674" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="675" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="676" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="677" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="678" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="679" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="680" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="681" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="682" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="683" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="684" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="685" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="686" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="687" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="688" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="689" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="690" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="691" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="692" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="693" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="694" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="695" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="696" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="697" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="698" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="699" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="700" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="701" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="702" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="703" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="704" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="705" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="706" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="707" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="708" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="709" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="710" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="711" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="712" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="713" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="714" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="715" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="716" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="717" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="718" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="719" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="720" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="721" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="722" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="723" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="724" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="725" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="726" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="727" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="728" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="729" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="730" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="731" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="732" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="733" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="734" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="735" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="736" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="737" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="738" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="739" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="740" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="741" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="742" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="743" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="744" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="745" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="746" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="747" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="748" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="749" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="750" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="751" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="752" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="753" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="754" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="755" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="756" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="757" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="758" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="759" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="760" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="761" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="762" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="763" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="764" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="765" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="766" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="767" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="768" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="769" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="770" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="771" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="772" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="773" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="774" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="775" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="776" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="777" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="778" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="779" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="780" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="781" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="782" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="783" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="784" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="785" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="786" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="787" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="788" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="789" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="790" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="791" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="792" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="793" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="794" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="795" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="796" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="797" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="798" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="799" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="800" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="801" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="802" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="803" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="804" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="805" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="806" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="807" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="808" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="809" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="810" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="811" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="812" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="813" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="814" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="815" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="816" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="817" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="818" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="819" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="820" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="821" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="822" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="823" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="824" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="825" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="826" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="827" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="828" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="829" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="830" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="831" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="832" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="833" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="834" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="835" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="836" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="837" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="838" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="839" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="840" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="841" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="842" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="843" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="844" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="845" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="846" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="847" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="848" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="849" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="850" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="851" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="852" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="853" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="854" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="855" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="856" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="857" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="858" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="859" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="860" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="861" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="862" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="863" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="864" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="865" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="866" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="867" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="868" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="869" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="870" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="871" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="872" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="873" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="874" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="875" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="876" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="877" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="878" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="879" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="880" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="881" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="882" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="883" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="884" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="885" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="886" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="887" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="888" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="889" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="890" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="891" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="892" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="893" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="894" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="895" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="896" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="897" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="898" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="899" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="900" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="901" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="902" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="903" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="904" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="905" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="906" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="907" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="908" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="909" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="910" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="911" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="912" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="913" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="914" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="915" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="916" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="917" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="918" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="919" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="920" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="921" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="922" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="923" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="924" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="925" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="926" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="927" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="928" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="929" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="930" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="931" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="932" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="933" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="934" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="935" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="936" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="937" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="938" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="939" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="940" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="941" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="942" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="943" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="944" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="945" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="946" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="947" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="948" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="949" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="950" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="951" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="952" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="953" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="954" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="955" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="956" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="957" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="958" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="959" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="960" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="961" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="962" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="963" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="964" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="965" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="966" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="967" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="968" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="969" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="970" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="971" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="972" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="973" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="974" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="975" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="976" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="977" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="978" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="979" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="980" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="981" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="982" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="983" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="984" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="985" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="986" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="987" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="988" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="989" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="990" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="991" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="992" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="993" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="994" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="995" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="996" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="997" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="998" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="999" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1000" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1001" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1002" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1003" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1004" x14ac:dyDescent="0.2"/>
+    <row customHeight="1" ht="19" r="1005" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="26">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -17931,42 +18366,42 @@
     <mergeCell ref="E83:J83"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C7 C9:C705" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C7 C9:C705" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D7 D9:D703" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D7 D9:D703" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:B20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="false">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="32.0" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="56.5" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -17976,6 +18411,12 @@
       <c r="B1" s="26" t="s">
         <v>385</v>
       </c>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="L1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
@@ -18000,6 +18441,19 @@
       <c r="B4" s="26" t="s">
         <v>390</v>
       </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
@@ -18130,6 +18584,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>